--- a/Figures/Region_Results/Final_predictions_SUICF_Region.xlsx
+++ b/Figures/Region_Results/Final_predictions_SUICF_Region.xlsx
@@ -6,8 +6,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Continent" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Island" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Americas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Southern Cone" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Non Latin Caribbean" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Central America" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Andean Area" sheetId="5" state="visible" r:id="rId5"/>
@@ -15,12 +15,14 @@
     <sheet name="North America" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Latin Caribbean" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Mexico" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Continent" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Island" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -154,6 +156,9 @@
     <t xml:space="preserve">ECON1</t>
   </si>
   <si>
+    <t xml:space="preserve">WHO_COV_9</t>
+  </si>
+  <si>
     <t xml:space="preserve">WHO_COV_12</t>
   </si>
   <si>
@@ -164,9 +169,6 @@
   </si>
   <si>
     <t xml:space="preserve">WHO_COV_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO_COV_9</t>
   </si>
   <si>
     <t xml:space="preserve">WHO_COV_3</t>
@@ -187,10 +189,10 @@
     <t xml:space="preserve">Fit</t>
   </si>
   <si>
-    <t xml:space="preserve">Continent</t>
+    <t xml:space="preserve">Americas</t>
   </si>
   <si>
-    <t xml:space="preserve">Island</t>
+    <t xml:space="preserve">Southern Cone</t>
   </si>
   <si>
     <t xml:space="preserve">Non Latin Caribbean</t>
@@ -212,6 +214,12 @@
   </si>
   <si>
     <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Island</t>
   </si>
 </sst>
 </file>
@@ -718,6 +726,3423 @@
         <v>55</v>
       </c>
       <c r="C2" t="n">
+        <v>4.97017845441506</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.57600778850417</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.02124714996765</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30.2451475162562</v>
+      </c>
+      <c r="G2" t="n">
+        <v>76.7666952247969</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.060773308279</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7.25994599465368</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8.57503785535976</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8.07944758064546</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.65289884388162</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.7219776703212</v>
+      </c>
+      <c r="N2" t="n">
+        <v>64.5998007200443</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0632771465545348</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0604270167530949</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.1030342332549</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.530251179438206</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.243010423998768</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.640487862443495</v>
+      </c>
+      <c r="U2" t="n">
+        <v>36.0178742608335</v>
+      </c>
+      <c r="V2" t="n">
+        <v>6.40582746788284</v>
+      </c>
+      <c r="W2" t="n">
+        <v>12.7326794021881</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1793.31781776369</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8.62342058734478</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.648853489330512</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>821.679248391516</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>47.2247950073692</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>4.0199958344662</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>13.2161116766014</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>30.2095488927125</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>971.108431101936</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>52.1275362234939</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>64.5998007200443</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>37.2938247262463</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>6.57691695128201</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2.88064017393101</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>2.31983792556642</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>3.55182935154388</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.0169124516859731</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.0171497368025925</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.237147981317213</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>4.01997179150584</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>3.03172697692699</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.842125479110554</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.758119792893775</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1.24859853915165</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.180214483183</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1.41012639549138</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>27.2664122002042</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.445651902461229</v>
+      </c>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2" t="n">
+        <v>3.07593430203491</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.31148049996744</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.76948789467422</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.21962559260063</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30.5335140129746</v>
+      </c>
+      <c r="G3" t="n">
+        <v>77.0631102387733</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.18082445936325</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.36824089839814</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.50172479758717</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8.0763374905659</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.65124328878053</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.83540702267427</v>
+      </c>
+      <c r="N3" t="n">
+        <v>65.1349778035903</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0633472007811924</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0600719950457487</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.102867210016995</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.531816165185478</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.241897428970586</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.645203500664529</v>
+      </c>
+      <c r="U3" t="n">
+        <v>37.1075699718974</v>
+      </c>
+      <c r="V3" t="n">
+        <v>6.63322928930661</v>
+      </c>
+      <c r="W3" t="n">
+        <v>12.7280051038237</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1906.44111707822</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.01611989477358</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.694710366483304</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>887.273844649675</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>47.0828540111539</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4.21963456677832</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>13.3666463823235</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>30.507750334983</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1018.59524627021</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>52.2202053987821</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>65.1349778035903</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>37.6970916179081</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>4.98085272378861</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2.97083981892275</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2.61680184231719</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>3.42651305310965</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.0167954956039376</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.0168359380293947</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.253932816282836</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>2.97063155059327</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>3.05852872950259</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.834395375820259</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.749391150010738</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1.26829133116959</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1.05907645175019</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1.38767383298518</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>27.7765674130042</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.417565117550662</v>
+      </c>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
+      <c r="BC3" t="n">
+        <v>3.21079608282339</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.22341671045831</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.91951513960443</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.36289206502753</v>
+      </c>
+      <c r="F4" t="n">
+        <v>30.2950072853148</v>
+      </c>
+      <c r="G4" t="n">
+        <v>77.330666159131</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.29645391296647</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.02456302645126</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9.13200434897935</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.98591475410876</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.60941155497307</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.48332766357165</v>
+      </c>
+      <c r="N4" t="n">
+        <v>65.6188975018908</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0633593601869019</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0586389457619911</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.10348982039817</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.533525025869085</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.24098684778441</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.649344583500495</v>
+      </c>
+      <c r="U4" t="n">
+        <v>37.3928800218522</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7.30126005269293</v>
+      </c>
+      <c r="W4" t="n">
+        <v>12.58630452719</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2023.83638134893</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.32506840657336</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.825166264396644</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>937.555184851488</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>47.1179318695936</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4.36675229492354</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>13.5470508117617</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>30.2749941168095</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1085.49098367184</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>52.0173537556975</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>65.6188975018908</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>37.607807678538</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>4.10953353323073</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2.89902773384212</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2.64162231496766</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>3.45066179478756</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.0154848089903361</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.0154848089903361</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.268953479763331</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>2.98651516835587</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>3.12889952500949</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.837273240628098</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.738501626864872</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1.25889041369261</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1.08463722083685</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>1.39639633458559</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>28.2647667481222</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.419991740774973</v>
+      </c>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4" t="n">
+        <v>3.26801460883076</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.06890713092173</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.99204050015994</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.42107687239081</v>
+      </c>
+      <c r="F5" t="n">
+        <v>29.7065956366906</v>
+      </c>
+      <c r="G5" t="n">
+        <v>77.5927025242545</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.25286192132823</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.00684047188386</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9.26144957793739</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.93191304635378</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.58781960753569</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.57832724066461</v>
+      </c>
+      <c r="N5" t="n">
+        <v>66.016958817542</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0636161402622672</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0576270087338896</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.103602336211624</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.53549209142831</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.239662423363976</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.65263141647225</v>
+      </c>
+      <c r="U5" t="n">
+        <v>35.7726260563034</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7.18974996008583</v>
+      </c>
+      <c r="W5" t="n">
+        <v>12.4978830199532</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2176.25987105027</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.45855093528243</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.856762445105872</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1006.69466367046</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>47.0965972081532</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>4.4200759996615</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>13.4202585510415</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>29.6972530494322</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1168.86239812684</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>51.9599014265416</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>66.016958817542</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>37.3514399233931</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>6.17728907212581</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2.82189127833025</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.64549439461396</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>3.54551126604838</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.0171213823813263</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0171213823813263</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.28263515838999</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>2.90666039485963</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>2.99192396639508</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.839463218693979</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.721755466142368</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1.14386945375446</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1.16646146999286</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>1.41259554164272</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>28.6772099012326</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.344694250521532</v>
+      </c>
+      <c r="AZ5"/>
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BC5" t="n">
+        <v>3.27212768217574</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.8234526045238</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.95607705276592</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.43695211008193</v>
+      </c>
+      <c r="F6" t="n">
+        <v>29.4733731844874</v>
+      </c>
+      <c r="G6" t="n">
+        <v>77.8470337752777</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.34763453670859</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.49999891147979</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8.92207342521262</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.94395033728424</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.59913494651869</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.55623614295725</v>
+      </c>
+      <c r="N6" t="n">
+        <v>66.3994530125464</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0628279024167614</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0576695568604942</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.101084140360478</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.539725009340633</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.238693391022045</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.655734170211448</v>
+      </c>
+      <c r="U6" t="n">
+        <v>33.7579984974431</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6.54940251981578</v>
+      </c>
+      <c r="W6" t="n">
+        <v>12.5096299940551</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2321.57147612227</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.44816838044436</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.23094102062759</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1085.71197173164</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>47.2604267127219</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4.43689132237141</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>13.8636202711701</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>29.4754700352613</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1234.03222760017</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>51.4490462609948</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>66.3994530125464</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>36.7272157006786</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>4.62851419349645</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.88589854813491</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>2.66736782451027</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>3.67547240714436</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.0174609131847833</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0174609131847833</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.300118363328567</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>2.90272755365993</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>3.11678115606116</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.849451987736258</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.728759435704351</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1.07703726749759</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1.25356164799554</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1.45632613910804</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>29.4591022331448</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.387886049554803</v>
+      </c>
+      <c r="AZ6"/>
+      <c r="BA6"/>
+      <c r="BB6"/>
+      <c r="BC6" t="n">
+        <v>3.32134423011911</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.74399583848011</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.00100235959094</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.41773223999595</v>
+      </c>
+      <c r="F7" t="n">
+        <v>30.0343941303559</v>
+      </c>
+      <c r="G7" t="n">
+        <v>78.09789632469</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.3127896906433</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.03959088107877</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.32447243255938</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8.00296683856459</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.63297845638534</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.83085467941141</v>
+      </c>
+      <c r="N7" t="n">
+        <v>66.8033761084876</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0630541257257766</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0576291205106194</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0991611108407082</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.543033562678269</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.237122080244964</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.658805498737578</v>
+      </c>
+      <c r="U7" t="n">
+        <v>32.6269558848584</v>
+      </c>
+      <c r="V7" t="n">
+        <v>6.13703328720509</v>
+      </c>
+      <c r="W7" t="n">
+        <v>12.59419159456</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2487.64848770435</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.46051425897051</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.851929414148484</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1164.13364364913</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>46.7362677953233</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>4.41793504761551</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>13.601223661941</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>30.0550323694512</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1322.61351712262</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>52.366831959721</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>66.8033761084876</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>36.839663338396</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>4.2970917612629</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2.9329458614359</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>2.66266716642811</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>3.8392066841682</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.0172478990719883</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.0172478990719883</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.319454816967441</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>3.04192563971718</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>2.95445736737158</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.851700822244158</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.763117966431473</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1.1602263752955</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1.35878057972751</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>1.49154875257061</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>30.3764292465415</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.360301289145321</v>
+      </c>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7" t="n">
+        <v>3.29122311713648</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.73201488102035</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.9716953185431</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.57045836125986</v>
+      </c>
+      <c r="F8" t="n">
+        <v>29.3756785530133</v>
+      </c>
+      <c r="G8" t="n">
+        <v>78.3480576549298</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.29518201231121</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.46257569902229</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7.64948694600559</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8.03756187081984</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.65599669632998</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4.17650230506442</v>
+      </c>
+      <c r="N8" t="n">
+        <v>67.1904404949167</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0629343215689162</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.0574541550647424</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0984243100013716</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.544917915278226</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.236269298086902</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.66195984892146</v>
+      </c>
+      <c r="U8" t="n">
+        <v>33.1302211270366</v>
+      </c>
+      <c r="V8" t="n">
+        <v>5.62544421411816</v>
+      </c>
+      <c r="W8" t="n">
+        <v>12.6391605811522</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2668.6147483442</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.58660659466088</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.873639888773039</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1269.17691628149</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>47.6259926583468</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>4.57030685820468</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>13.9007788907801</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>29.4285688770943</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1398.58297587085</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>51.4682240413813</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>67.1904404949167</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>36.7553570111536</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>3.53230472848443</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>3.02485539941057</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>2.66463876076542</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>4.01775364070469</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.0185062803267545</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.0185062803267545</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.338257814282436</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>3.09190330328079</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>2.70471490216935</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.853283636130348</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.787733522493299</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1.1126586132021</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1.48074718459547</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>1.5670741459646</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>30.9982672804619</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.302618945139557</v>
+      </c>
+      <c r="AZ8"/>
+      <c r="BA8"/>
+      <c r="BB8"/>
+      <c r="BC8" t="n">
+        <v>3.33072063858517</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.61298837528801</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.01801248098939</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.65485992586278</v>
+      </c>
+      <c r="F9" t="n">
+        <v>28.8614441601463</v>
+      </c>
+      <c r="G9" t="n">
+        <v>78.5992015219097</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.39763920356153</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.18904425063722</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7.29013677417243</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8.03155663314857</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.65881822289746</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.0628259834417</v>
+      </c>
+      <c r="N9" t="n">
+        <v>67.5921765416713</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0625764431852582</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.0576655121665223</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.0981820875354579</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.546617513147774</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.234958443964881</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.665841570510048</v>
+      </c>
+      <c r="U9" t="n">
+        <v>31.9904680243895</v>
+      </c>
+      <c r="V9" t="n">
+        <v>5.41558544527387</v>
+      </c>
+      <c r="W9" t="n">
+        <v>12.6220325464194</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2849.30154158588</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.70800138097377</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.723467407045659</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1359.18008683553</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>47.8635408555332</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>4.65009555025567</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>14.0298538445223</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>28.896809841237</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1489.28785842937</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>51.3907574159677</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>67.5921765416713</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>36.30184235769</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>3.41127487660108</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>3.16109342909566</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>2.69068082230291</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>4.0958748463485</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.0181173139115735</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.0181173139115735</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.355050784497135</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>3.19814672367539</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>2.42776053434544</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.853386805548486</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.812230333367506</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1.10780527716692</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1.51512196801246</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1.65690181910324</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>31.9341959422279</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.304943470409749</v>
+      </c>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9" t="n">
+        <v>3.38477991674698</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.81195338903315</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.9755237493125</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.77906393620601</v>
+      </c>
+      <c r="F10" t="n">
+        <v>27.9750825129245</v>
+      </c>
+      <c r="G10" t="n">
+        <v>78.8461031424938</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.46465051479279</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.36468779746591</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7.30691941896774</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7.97509175510137</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.63230140905083</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.52598928367242</v>
+      </c>
+      <c r="N10" t="n">
+        <v>68.0246480089687</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0621488822176718</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.057954853924319</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0975708184768783</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.548687881572624</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.23363756380843</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.670470399594837</v>
+      </c>
+      <c r="U10" t="n">
+        <v>34.2061088256315</v>
+      </c>
+      <c r="V10" t="n">
+        <v>5.71440386211116</v>
+      </c>
+      <c r="W10" t="n">
+        <v>12.5321090125282</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2973.08033987219</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.77887263904609</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.777476202373053</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1449.90325826463</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>48.4938157108222</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>4.76761357282673</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>13.6666111157208</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>28.0067524095162</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1522.07802539588</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>50.7240842697472</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>68.0246480089687</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>35.897707564557</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>5.16489617465772</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>3.28381709172391</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>2.71002478543992</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>4.18253987014664</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.0184693246980641</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.0184693246980641</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.377495788581264</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>3.26382526110321</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>2.22250223558974</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.871489583502502</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.825820895860657</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>1.12316457119241</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>1.54570558350595</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1.68294112596676</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>32.7994027863273</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.295248306587234</v>
+      </c>
+      <c r="AZ10"/>
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BC10" t="n">
+        <v>3.4085798256811</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.15041514829592</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.19823574876389</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.22858140210027</v>
+      </c>
+      <c r="F11" t="n">
+        <v>26.9984116876391</v>
+      </c>
+      <c r="G11" t="n">
+        <v>79.0879893108686</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.49631505319202</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8.20359212715243</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8.833185695855</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7.90738802430347</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.59959952122035</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-1.75441336845029</v>
+      </c>
+      <c r="N11" t="n">
+        <v>68.4377114803703</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0624447018356587</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0575071230665738</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.097337513480173</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.550591453514667</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.232119208102974</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.67517010884412</v>
+      </c>
+      <c r="U11" t="n">
+        <v>36.0224798625012</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7.81069651550746</v>
+      </c>
+      <c r="W11" t="n">
+        <v>12.4261728260862</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3054.40240040469</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10.4615582857887</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.820213054573968</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1517.47560043252</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>49.6180968948912</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>5.22348496435955</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>14.1448314663927</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>26.9962601364746</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1535.71547337154</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>49.5591641771478</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>68.4377114803703</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>35.5606402494122</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>2.24411066990573</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>3.28413723044943</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>2.73624621675157</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>4.24785853578507</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.0182830412749262</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.0182830412749262</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.400441288350386</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>3.37207088189561</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>2.11040514826779</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.864143418344597</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.875645520578387</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1.1397865247198</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1.54142558581154</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1.74646654793045</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>33.5246758364543</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.291518920316994</v>
+      </c>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11" t="n">
+        <v>3.51903595695927</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.18542055459369</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.03548238190639</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.18855127490427</v>
+      </c>
+      <c r="F12" t="n">
+        <v>25.9574257946512</v>
+      </c>
+      <c r="G12" t="n">
+        <v>79.3282546625052</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.52023277631142</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.8966920803642</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8.53208713071769</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7.83593595838924</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.56564456110856</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4.69217784556481</v>
+      </c>
+      <c r="N12" t="n">
+        <v>68.9081167765285</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0622831516591852</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.057431430163763</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0968430486849644</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.552791298260869</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.230651071231029</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.680162273506473</v>
+      </c>
+      <c r="U12" t="n">
+        <v>36.0980161441847</v>
+      </c>
+      <c r="V12" t="n">
+        <v>7.48834675777459</v>
+      </c>
+      <c r="W12" t="n">
+        <v>12.3139009058689</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3215.1821950149</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10.260318078088</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.943418081577549</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1614.08992983317</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>50.4190104052255</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>5.17740792663519</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>14.0173821052292</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>25.9220274086036</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1599.46186477191</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>48.6346155376994</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>68.9081167765285</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>35.2016841929007</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>2.86545652229196</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>3.26448915561654</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>2.85921840519335</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>4.39286022866256</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.0654401157086777</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.0654401157086777</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.42154892791236</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>3.47098029230831</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>1.96063241627853</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.877453004602201</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.878253731851146</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1.1589078169606</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1.57263064932023</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1.80005723552962</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>34.2347261111228</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.291914989075971</v>
+      </c>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12" t="n">
+        <v>3.54984015369825</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.18673795744403</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4.95138102243988</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.17249462975488</v>
+      </c>
+      <c r="F13" t="n">
+        <v>25.2995768818293</v>
+      </c>
+      <c r="G13" t="n">
+        <v>79.5676117291903</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.60784664757701</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.42176847180613</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8.23959197651443</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7.8119744155154</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.55903660190747</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.42355425688085</v>
+      </c>
+      <c r="N13" t="n">
+        <v>69.3584220583346</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0623746572891743</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.057063195707004</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0960940955220849</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.554947828803715</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.229520222678021</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.684859715266837</v>
+      </c>
+      <c r="U13" t="n">
+        <v>35.5188601851947</v>
+      </c>
+      <c r="V13" t="n">
+        <v>6.86286333990167</v>
+      </c>
+      <c r="W13" t="n">
+        <v>12.2701010590495</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3333.74372420218</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10.1775680191145</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.10063710620148</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1681.80614470337</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>50.8806323790153</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>5.16366122185589</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>14.1883006916569</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>25.2831499999145</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1649.72552154478</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>48.0116292310481</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>69.3584220583346</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>35.1531193228667</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>4.02714984224021</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>3.29333504429385</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>2.89141764568542</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>4.60369524528101</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.0772858623304403</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.0772858623304403</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.449260721772166</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>3.63238596627134</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>1.7973186702016</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.895458390266999</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.925404796779464</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>1.22780085242</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>1.6589277590561</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>1.86052512948312</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>34.9326217899428</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.260466924731435</v>
+      </c>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13" t="n">
+        <v>3.58133480226727</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.06681685140456</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.97389253450468</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.13943361805864</v>
+      </c>
+      <c r="F14" t="n">
+        <v>25.2787148793227</v>
+      </c>
+      <c r="G14" t="n">
+        <v>79.7985306716613</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.62555208206994</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.94139501817124</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7.6984019274273</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7.79117718810738</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.55173933879423</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.57308199169567</v>
+      </c>
+      <c r="N14" t="n">
+        <v>69.7341685949626</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0622732943212251</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0570045628822141</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0958118662352547</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.556941655132387</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.227968621429118</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.689442842078735</v>
+      </c>
+      <c r="U14" t="n">
+        <v>35.2532762837045</v>
+      </c>
+      <c r="V14" t="n">
+        <v>6.40899507437739</v>
+      </c>
+      <c r="W14" t="n">
+        <v>12.2340664974922</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3419.04000844602</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>10.1585568128643</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.01539601441704</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1722.53980635969</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>50.6739444495304</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>5.12793156908746</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>14.3265254805552</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>25.2260923732837</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1694.66616124016</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>48.2831677891125</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>69.7341685949626</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>35.1197454061991</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>3.23271785510371</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>3.35495730427167</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>2.9355040310155</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>4.71627039302257</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.0916620248703113</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.0916620248703113</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.479156499854097</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>3.72641284162875</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>1.67103056929924</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.927476527647955</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.937263689145508</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>1.26024792532699</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1.67098636907476</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>1.88793427111364</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>36.1245547123523</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.310067705422129</v>
+      </c>
+      <c r="AZ14"/>
+      <c r="BA14"/>
+      <c r="BB14"/>
+      <c r="BC14" t="n">
+        <v>3.62205709804117</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.78152110921453</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.90972994678358</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.23381387359549</v>
+      </c>
+      <c r="F15" t="n">
+        <v>24.6706807602029</v>
+      </c>
+      <c r="G15" t="n">
+        <v>80.0276107619412</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.62575210078392</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.68122550360465</v>
+      </c>
+      <c r="J15" t="n">
+        <v>7.37309423897785</v>
+      </c>
+      <c r="K15" t="n">
+        <v>7.78703760882457</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.55059113948435</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.63180428432126</v>
+      </c>
+      <c r="N15" t="n">
+        <v>69.9865727877107</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.0624027661472651</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.0563943793200233</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.0954948277259967</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.559031845904107</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.226676180902568</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.693819307823686</v>
+      </c>
+      <c r="U15" t="n">
+        <v>33.3008560056144</v>
+      </c>
+      <c r="V15" t="n">
+        <v>6.20341051176221</v>
+      </c>
+      <c r="W15" t="n">
+        <v>12.2260315281543</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3481.17580559625</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10.1611996739671</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.809535367122798</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1777.330845119</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>51.5011898645802</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>5.22466157058496</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>14.8090113345199</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>24.6329293637366</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1702.58368218985</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>47.6898179568739</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>69.9865727877107</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>34.8860983176455</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>3.0146840253905</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>3.39586231838323</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>2.97766091369373</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>4.84326340554324</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.102937504406957</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.102937504406957</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.507019156273147</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>3.84657483878781</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>1.56229684374907</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.935700678653983</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.945046690381733</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>1.29592431022592</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1.72504641672526</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>1.93655104471496</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>36.9983009681672</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0.27963445036225</v>
+      </c>
+      <c r="AZ15"/>
+      <c r="BA15"/>
+      <c r="BB15"/>
+      <c r="BC15" t="n">
+        <v>3.68051182049997</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.64404832158198</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.91620717005465</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.37688880724325</v>
+      </c>
+      <c r="F16" t="n">
+        <v>24.3159978877127</v>
+      </c>
+      <c r="G16" t="n">
+        <v>80.2567567996889</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.7441727787464</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.15878558610441</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.81670492774943</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7.74835576059648</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.53288012987958</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.00053401927994</v>
+      </c>
+      <c r="N16" t="n">
+        <v>70.0969869351131</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0619842250384855</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.0566665471996076</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.0944331881626093</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.561624959010713</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.225291080588303</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.697540441984547</v>
+      </c>
+      <c r="U16" t="n">
+        <v>32.3937573898347</v>
+      </c>
+      <c r="V16" t="n">
+        <v>5.69677933688412</v>
+      </c>
+      <c r="W16" t="n">
+        <v>12.1651502961166</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3595.3340303745</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10.2780529185973</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.969823777743378</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1870.69373518659</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>52.1706679469857</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>5.37329995057706</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>15.2041334173486</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>24.115772511095</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1722.87780080679</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>46.8595950760165</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>70.0969869351131</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>34.9024511012326</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>3.24635474093361</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>3.40741427594589</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>3.0057512505305</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>5.01356885724113</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.112275171297215</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.112275171297215</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.537684756169011</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>3.98536350639122</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>1.47856449794659</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.915396446970473</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.975708297777397</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>1.34466331992689</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1.78961572205402</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>1.98451222877086</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>37.7932225998966</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.335718160298114</v>
+      </c>
+      <c r="AZ16"/>
+      <c r="BA16"/>
+      <c r="BB16"/>
+      <c r="BC16" t="n">
+        <v>3.74144125892986</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.57087721074989</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.00333266270488</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5.56421604557784</v>
+      </c>
+      <c r="F17" t="n">
+        <v>23.3165757322672</v>
+      </c>
+      <c r="G17" t="n">
+        <v>80.4855881723599</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.87926421421275</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.15671215289431</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6.86205833948829</v>
+      </c>
+      <c r="K17" t="n">
+        <v>7.71456793122378</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.51793452437908</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.41166121770845</v>
+      </c>
+      <c r="N17" t="n">
+        <v>70.3099761114094</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0622342558228642</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0569973768200306</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.0932431242905617</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.564134406331084</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.223390836735824</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.70181640429666</v>
+      </c>
+      <c r="U17" t="n">
+        <v>32.3338036244123</v>
+      </c>
+      <c r="V17" t="n">
+        <v>5.65740240233489</v>
+      </c>
+      <c r="W17" t="n">
+        <v>12.1113259119215</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3667.3605768612</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10.642878670121</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.860512531683508</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1921.98147335912</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>52.0096652368083</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>5.56993898744208</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>15.7548469957424</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>23.3939498373708</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1743.96055732297</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>47.129170808865</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>70.3099761114094</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>34.6946997021545</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>3.08991856315169</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>3.50741351894872</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>3.05174113157259</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>5.21352343652332</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.117474395987532</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.117474395987532</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.566037655063172</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>4.1298185561272</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>1.44946142605835</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.910056349789939</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1.033056513603</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>1.39419636496956</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>1.86343249837782</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>2.03786058985419</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>38.6989691190663</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0.252218647890321</v>
+      </c>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17" t="n">
+        <v>3.85020371831841</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.76614357594359</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5.10008953660313</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.55310191663422</v>
+      </c>
+      <c r="F18" t="n">
+        <v>23.5234766724328</v>
+      </c>
+      <c r="G18" t="n">
+        <v>80.7122679604697</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.85721570044189</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.69670097691245</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7.45094978570459</v>
+      </c>
+      <c r="K18" t="n">
+        <v>7.64965263652601</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.48960086491859</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.714461044334904</v>
+      </c>
+      <c r="N18" t="n">
+        <v>70.6343661994291</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.0624418366012476</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.0569124351226981</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.0929324516157555</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.566115243494048</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.221598033166176</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.706126786880256</v>
+      </c>
+      <c r="U18" t="n">
+        <v>33.5510042634113</v>
+      </c>
+      <c r="V18" t="n">
+        <v>6.15395626308575</v>
+      </c>
+      <c r="W18" t="n">
+        <v>12.0075698303402</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3747.26615493388</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10.6703099614341</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.753937995683991</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1951.62969435968</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>52.1199364073029</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>5.5634063197326</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>15.7827357398964</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>23.43149199704</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1794.58521461519</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>47.1242851204653</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>70.6343661994291</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>34.8897765828233</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>3.60461076709873</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>3.53471805113406</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>3.08233410890894</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>5.29554861577485</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.117393086765737</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.117393086765737</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.596149341063642</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>4.31169289472675</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>1.42212094717494</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.923531364614437</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1.07436566552348</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1.4447941481381</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1.8287598842702</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>2.121656824012</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>39.7285478473025</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0.218707495030609</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>3.88970144291959</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>3.82046896208106</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>3.94421193890946</v>
+      </c>
+      <c r="BC18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.80412291530445</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5.17176838760411</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5.5976230476704</v>
+      </c>
+      <c r="F19" t="n">
+        <v>23.2612341364403</v>
+      </c>
+      <c r="G19" t="n">
+        <v>80.93657374924</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.01714362529725</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.65542504796429</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7.46715738649482</v>
+      </c>
+      <c r="K19" t="n">
+        <v>7.57063026145943</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.45454559943672</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.09590454778001</v>
+      </c>
+      <c r="N19" t="n">
+        <v>70.9224158048563</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.062657236722626</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.056241790395319</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.0927809461207432</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.568269032138393</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.220050994622873</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.70909974608781</v>
+      </c>
+      <c r="U19" t="n">
+        <v>34.319045664735</v>
+      </c>
+      <c r="V19" t="n">
+        <v>6.0634215008393</v>
+      </c>
+      <c r="W19" t="n">
+        <v>11.8813471461545</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3911.65305487144</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>10.7748602182867</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.556166969240516</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2034.95778730378</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>52.3421393308138</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>5.61233652543765</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>16.0602767918357</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>23.1413102698513</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1875.7089387816</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>47.1032564408531</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>70.9224158048563</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>34.7910672662251</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>2.98305961518311</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>3.5544852886026</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>3.12434460953033</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>5.47826389927532</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.122934054159145</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.122934054159145</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.62391196348458</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>4.35134539517162</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>1.41253426200388</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.953677461091436</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1.07972249040758</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1.4766067848268</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>1.90430507725994</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>2.0928867451051</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>44.9640579716648</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0.251491640112344</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>3.95998659735163</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>3.88617894672808</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>4.04246526629069</v>
+      </c>
+      <c r="BC19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.73156650401217</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5.15156990276718</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.55680445172049</v>
+      </c>
+      <c r="F20" t="n">
+        <v>23.3186084283235</v>
+      </c>
+      <c r="G20" t="n">
+        <v>81.1547955334597</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.03966262048144</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6.43085023829888</v>
+      </c>
+      <c r="J20" t="n">
+        <v>7.25020702492372</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7.50648860822054</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.42597809501283</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.27084469381917</v>
+      </c>
+      <c r="N20" t="n">
+        <v>71.278090705281</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.0634549303541197</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.0544939384687271</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.0926303929406361</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.570829000407171</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.218591737829588</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.711978705861366</v>
+      </c>
+      <c r="U20" t="n">
+        <v>33.8422042557881</v>
+      </c>
+      <c r="V20" t="n">
+        <v>5.8250820458615</v>
+      </c>
+      <c r="W20" t="n">
+        <v>11.778825861434</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4006.69208251469</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10.6323775214213</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.618178481859452</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2089.64476807594</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>51.9298117433158</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>5.52020843364802</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>15.7753905769823</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>23.6928939384924</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1916.11486743979</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>47.4519015769155</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>71.278090705281</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>34.9808922711039</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2.93673970244059</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>3.53896238865102</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>3.13041266458709</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>5.6215313982522</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.13058812509678</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.13058812509678</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.657300538516528</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>7.14612682010818</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>1.40793773052943</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.95798041310503</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>1.07566740254135</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1.47040773374918</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1.96753383836405</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>2.11062720842689</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>45.932601824294</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0.260999463721444</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>3.94941743443899</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>3.87107645117632</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>4.07305746064136</v>
+      </c>
+      <c r="BC20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.71412770478527</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.22846031537733</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5.57572233313702</v>
+      </c>
+      <c r="F21" t="n">
+        <v>23.2234469948429</v>
+      </c>
+      <c r="G21" t="n">
+        <v>81.374610523247</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.05960717278924</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.37928064598815</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7.2548765187639</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7.50640473466958</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.42594995783741</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.39074379309897</v>
+      </c>
+      <c r="N21" t="n">
+        <v>71.5885327087003</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.0632981176274425</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.0538840982339602</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.0919576003740115</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.574146284825897</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.216713898938679</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.71470734131247</v>
+      </c>
+      <c r="U21" t="n">
+        <v>33.9268921452795</v>
+      </c>
+      <c r="V21" t="n">
+        <v>5.72532628072909</v>
+      </c>
+      <c r="W21" t="n">
+        <v>11.7786295791404</v>
+      </c>
+      <c r="X21" t="n">
+        <v>4119.28389935092</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10.7195108643957</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.621091170873948</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2155.09063585385</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>51.5507203961299</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>5.57083195693581</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>16.0080954225766</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>23.449163798633</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1963.3027562983</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>47.8278280834289</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>71.5885327087003</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>35.03827925552</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>2.65660114073423</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>3.84683700486027</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>3.16722306033203</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>5.6385555894634</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.137130230101105</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.137130230101105</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.691250271925615</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>4.39348698368638</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>1.44307843987925</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.90826371631778</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>1.10084535618615</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>1.42665608940716</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>1.95239613619561</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>2.12764281845843</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>46.208749276345</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0.237492322642361</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>4.04088396224058</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>3.96669285432415</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>4.16149427897564</v>
+      </c>
+      <c r="BC21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="n">
         <v>4.94346008222237</v>
       </c>
       <c r="D2" t="n">
@@ -876,7 +4301,7 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C3" t="n">
         <v>5.28615152167376</v>
@@ -1037,7 +4462,7 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C4" t="n">
         <v>5.1822987634643</v>
@@ -1198,7 +4623,7 @@
         <v>2003</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C5" t="n">
         <v>5.01349722526839</v>
@@ -1359,7 +4784,7 @@
         <v>2004</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C6" t="n">
         <v>4.73306894804474</v>
@@ -1520,7 +4945,7 @@
         <v>2005</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C7" t="n">
         <v>4.63908955015436</v>
@@ -1681,7 +5106,7 @@
         <v>2006</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C8" t="n">
         <v>4.63227997525722</v>
@@ -1842,7 +5267,7 @@
         <v>2007</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C9" t="n">
         <v>4.49919576017916</v>
@@ -2003,7 +5428,7 @@
         <v>2008</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C10" t="n">
         <v>4.70559994925291</v>
@@ -2164,7 +5589,7 @@
         <v>2009</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C11" t="n">
         <v>5.05144819132844</v>
@@ -2325,7 +5750,7 @@
         <v>2010</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C12" t="n">
         <v>5.10136882683808</v>
@@ -2486,7 +5911,7 @@
         <v>2011</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C13" t="n">
         <v>5.11871234700858</v>
@@ -2647,7 +6072,7 @@
         <v>2012</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C14" t="n">
         <v>5.00258039662321</v>
@@ -2808,7 +6233,7 @@
         <v>2013</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C15" t="n">
         <v>4.70730713217611</v>
@@ -2969,7 +6394,7 @@
         <v>2014</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C16" t="n">
         <v>4.56921493827299</v>
@@ -3130,7 +6555,7 @@
         <v>2015</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C17" t="n">
         <v>4.49964166086823</v>
@@ -3291,7 +6716,7 @@
         <v>2016</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C18" t="n">
         <v>4.70685955153357</v>
@@ -3456,7 +6881,7 @@
         <v>2017</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C19" t="n">
         <v>4.74499180834362</v>
@@ -3621,7 +7046,7 @@
         <v>2018</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C20" t="n">
         <v>4.66507997020812</v>
@@ -3786,7 +7211,7 @@
         <v>2019</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C21" t="n">
         <v>4.64748464596259</v>
@@ -3945,6 +7370,2604 @@
         <v>4.17215273882477</v>
       </c>
       <c r="BC21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.87848231532034</v>
+      </c>
+      <c r="D2" t="n">
+        <v>47.8170883140897</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.19019624153713</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0838436937673829</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.285457630422042</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.300068882246681</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.496813376971093</v>
+      </c>
+      <c r="J2" t="n">
+        <v>28.7957731161736</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.140433552027341</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.69893634023338</v>
+      </c>
+      <c r="M2" t="n">
+        <v>47.8170883140897</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.89906132030032</v>
+      </c>
+      <c r="O2" t="n">
+        <v>36.8911969074651</v>
+      </c>
+      <c r="P2" t="n">
+        <v>58.2729930174503</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6.57820141734458</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5.40557321776041</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.20591816226575</v>
+      </c>
+      <c r="T2" t="n">
+        <v>148.809824202649</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5.25157082047573</v>
+      </c>
+      <c r="V2" t="n">
+        <v>8.50945153249632</v>
+      </c>
+      <c r="W2" t="n">
+        <v>85.9920761563752</v>
+      </c>
+      <c r="X2" t="n">
+        <v>50.1861708263672</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2.9004204452532</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>11.778021312807</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>36.8906535386614</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>5.61562783103297</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5.21716494626669</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2.00580097595823</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>59.5886874848583</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>41.3044329457813</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>6.96625719695002</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9.74627225812919</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>5.34478873790538</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>20.0025287124289</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>20.0025287124289</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>13.3301488670711</v>
+      </c>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2" t="n">
+        <v>6.49421342059485</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.86930245433001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>48.3929454847142</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.189478878668491</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0837262208264412</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.288634085942836</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.296535690908472</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.50306131214304</v>
+      </c>
+      <c r="J3" t="n">
+        <v>29.6499000767822</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.141625123653889</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8.69887928409825</v>
+      </c>
+      <c r="M3" t="n">
+        <v>48.3929454847142</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.85329569794841</v>
+      </c>
+      <c r="O3" t="n">
+        <v>38.2385407861701</v>
+      </c>
+      <c r="P3" t="n">
+        <v>58.9179287492948</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6.0471929556444</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5.40543946813019</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.20583883519627</v>
+      </c>
+      <c r="T3" t="n">
+        <v>154.822193256698</v>
+      </c>
+      <c r="U3" t="n">
+        <v>5.2786048257841</v>
+      </c>
+      <c r="V3" t="n">
+        <v>9.26082616967635</v>
+      </c>
+      <c r="W3" t="n">
+        <v>88.1979943397261</v>
+      </c>
+      <c r="X3" t="n">
+        <v>48.0410228085359</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.85305819591151</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>10.9485192335566</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>38.2402081269076</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>5.92504719452921</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6.55074143546235</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2.06687835529201</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>63.0496737487932</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>42.7014923666783</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>7.00007731455162</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>9.35344683431654</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>5.60310540948541</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>19.8943674782352</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>19.8943674782352</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>13.0020299211189</v>
+      </c>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3" t="n">
+        <v>6.10467971845054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.45754135733455</v>
+      </c>
+      <c r="D4" t="n">
+        <v>48.9397392081688</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.191242158496674</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0819440886492228</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.290756894532092</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.291681022619141</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.510220399549942</v>
+      </c>
+      <c r="J4" t="n">
+        <v>28.8727745560389</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.144375835703038</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.7072550962591</v>
+      </c>
+      <c r="M4" t="n">
+        <v>48.9397392081688</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.83281437530462</v>
+      </c>
+      <c r="O4" t="n">
+        <v>38.1432340220449</v>
+      </c>
+      <c r="P4" t="n">
+        <v>59.5684000669339</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5.92965977535746</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5.41185688346366</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.20871210711065</v>
+      </c>
+      <c r="T4" t="n">
+        <v>163.175460179452</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5.26088994464784</v>
+      </c>
+      <c r="V4" t="n">
+        <v>10.483553955065</v>
+      </c>
+      <c r="W4" t="n">
+        <v>93.7538194804247</v>
+      </c>
+      <c r="X4" t="n">
+        <v>46.8766728420181</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2.83451879033874</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>9.70005407513498</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>38.1445931288745</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6.22189162796404</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>3.93027756051446</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2.04124286876689</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>64.9096884275315</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>42.643121591571</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>6.94610619345345</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9.07070624222389</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>5.61893456962718</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>19.9204325722726</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>19.9204325722726</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>12.981587859339</v>
+      </c>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4" t="n">
+        <v>5.8470647879677</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.75023749147729</v>
+      </c>
+      <c r="D5" t="n">
+        <v>49.2558562000294</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.190296098962195</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.07698887423036</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.300836757193143</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.28952127167476</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.516287728000982</v>
+      </c>
+      <c r="J5" t="n">
+        <v>29.3983121605959</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.14235699793961</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8.58731707800194</v>
+      </c>
+      <c r="M5" t="n">
+        <v>49.2558562000294</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.60691817789685</v>
+      </c>
+      <c r="O5" t="n">
+        <v>41.1283400068852</v>
+      </c>
+      <c r="P5" t="n">
+        <v>60.3216915972981</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5.47408626209786</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5.33880362331895</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.18008939001315</v>
+      </c>
+      <c r="T5" t="n">
+        <v>154.461620862413</v>
+      </c>
+      <c r="U5" t="n">
+        <v>5.06358214334615</v>
+      </c>
+      <c r="V5" t="n">
+        <v>9.8832577469542</v>
+      </c>
+      <c r="W5" t="n">
+        <v>89.6192869793154</v>
+      </c>
+      <c r="X5" t="n">
+        <v>43.9907220985078</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.61225614888795</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>8.0617036503148</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>41.130396098521</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>6.41718190789425</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>15.6358129149098</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2.07699268064676</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>61.9080847857341</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>46.1290096673862</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>7.01307408087812</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.99420268057072</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>5.74537212923287</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>20.0009259976695</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>20.0009259976695</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>13.6664127773781</v>
+      </c>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5" t="n">
+        <v>5.48575494225279</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.71697130497483</v>
+      </c>
+      <c r="D6" t="n">
+        <v>49.5910330385644</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1854259478368</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0746861798197745</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.306282290122183</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.28506404091957</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.521912682931457</v>
+      </c>
+      <c r="J6" t="n">
+        <v>31.6426746047402</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.148541541301657</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.49634876268335</v>
+      </c>
+      <c r="M6" t="n">
+        <v>49.5910330385644</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.59092871532641</v>
+      </c>
+      <c r="O6" t="n">
+        <v>40.3242053229289</v>
+      </c>
+      <c r="P6" t="n">
+        <v>60.9285870304279</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5.35555075632931</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5.28578347218706</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.16240617522036</v>
+      </c>
+      <c r="T6" t="n">
+        <v>163.699475319297</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4.9638950039153</v>
+      </c>
+      <c r="V6" t="n">
+        <v>9.57657540556036</v>
+      </c>
+      <c r="W6" t="n">
+        <v>94.7399006070254</v>
+      </c>
+      <c r="X6" t="n">
+        <v>44.9061804271606</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.59154505312303</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8.50728100229745</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>40.3250694357952</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7.02739307446865</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>20.2935095891993</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2.03693312239172</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>65.5538534016249</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>45.5172211738645</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>6.93875704278725</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8.85124655531323</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>5.70557306182884</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>20.3044004480484</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>20.3044004480484</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>13.7232570723224</v>
+      </c>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6" t="n">
+        <v>5.38818464088632</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.37897468057129</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50.2917056609664</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.185861017054412</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0751417164143172</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.309772342036201</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.279892543147813</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.529418953510835</v>
+      </c>
+      <c r="J7" t="n">
+        <v>35.1920860199518</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.149332381346958</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8.32965946817026</v>
+      </c>
+      <c r="M7" t="n">
+        <v>50.2917056609664</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.26937728268155</v>
+      </c>
+      <c r="O7" t="n">
+        <v>36.4138151165612</v>
+      </c>
+      <c r="P7" t="n">
+        <v>61.5117699025263</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5.41086311893851</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5.18771326747073</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.13067621610344</v>
+      </c>
+      <c r="T7" t="n">
+        <v>218.382775402857</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5.54667451473158</v>
+      </c>
+      <c r="V7" t="n">
+        <v>9.36383448184952</v>
+      </c>
+      <c r="W7" t="n">
+        <v>135.248306762657</v>
+      </c>
+      <c r="X7" t="n">
+        <v>47.8331126941009</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3.26413074959442</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9.20372868952283</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>36.4143599999688</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>7.3077790289598</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6.32649559555505</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.96586609701248</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>79.4450730238253</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>42.8064699717804</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>7.33023315969938</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9.10873779346666</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>6.12842454550043</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>20.3707416604583</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>20.3707416604583</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>13.2234175237385</v>
+      </c>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7" t="n">
+        <v>5.26488969359817</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.67376086066625</v>
+      </c>
+      <c r="D8" t="n">
+        <v>51.0030476015034</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.185373842707422</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0744481249309711</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.312223551023042</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.277820577545953</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.53698415492466</v>
+      </c>
+      <c r="J8" t="n">
+        <v>34.5253294889528</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.150133903792706</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.35424670102064</v>
+      </c>
+      <c r="M8" t="n">
+        <v>51.0030476015034</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.02943283243005</v>
+      </c>
+      <c r="O8" t="n">
+        <v>35.9041247266815</v>
+      </c>
+      <c r="P8" t="n">
+        <v>62.092037187622</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4.88306812513092</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.21046787742961</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.15030645864458</v>
+      </c>
+      <c r="T8" t="n">
+        <v>237.693027294636</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5.28884434335489</v>
+      </c>
+      <c r="V8" t="n">
+        <v>12.5051429963866</v>
+      </c>
+      <c r="W8" t="n">
+        <v>150.820826717144</v>
+      </c>
+      <c r="X8" t="n">
+        <v>45.9164205427918</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3.02720002102341</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>7.73630559773551</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>35.9031410621296</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7.17474504087641</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6.12145276313937</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.82847312351769</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>82.1628351617393</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41.5784820526332</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>7.30874224162548</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9.14378141400414</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>6.05892769195346</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>20.4439943267666</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>20.4439943267666</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>13.8052434658275</v>
+      </c>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8" t="n">
+        <v>4.96916693632654</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.93937548520742</v>
+      </c>
+      <c r="D9" t="n">
+        <v>51.1530549540196</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.189930272335945</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0754294613116415</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.314391805627351</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.26940156603965</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.540974405567021</v>
+      </c>
+      <c r="J9" t="n">
+        <v>36.9428373936684</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.150846894685609</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.3376412554075</v>
+      </c>
+      <c r="M9" t="n">
+        <v>51.1530549540196</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.17109298098727</v>
+      </c>
+      <c r="O9" t="n">
+        <v>32.1093395393457</v>
+      </c>
+      <c r="P9" t="n">
+        <v>62.6704322002594</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4.87177549770035</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5.20483222539337</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.15573153027843</v>
+      </c>
+      <c r="T9" t="n">
+        <v>315.458100885726</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6.29651502426546</v>
+      </c>
+      <c r="V9" t="n">
+        <v>10.0082969742173</v>
+      </c>
+      <c r="W9" t="n">
+        <v>221.003044407295</v>
+      </c>
+      <c r="X9" t="n">
+        <v>52.5880283628826</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>4.16311936691731</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>10.522874048255</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>31.7062309745235</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7.40650336005638</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>4.51389859187247</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.79711236749058</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>89.1525534253014</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>37.4037842070823</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7.42514417899743</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>9.0164212208697</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>6.29787316416117</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>20.5271813023477</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>20.5271813023477</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>13.0318975400192</v>
+      </c>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9" t="n">
+        <v>5.05337876770029</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.95816242492774</v>
+      </c>
+      <c r="D10" t="n">
+        <v>51.1278901482109</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.188565162132454</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0795799267231952</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.317425406237951</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.267246524173232</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.544122878483148</v>
+      </c>
+      <c r="J10" t="n">
+        <v>37.3053258417042</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.147182980733165</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.26559286709323</v>
+      </c>
+      <c r="M10" t="n">
+        <v>51.1278901482109</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.42304522096839</v>
+      </c>
+      <c r="O10" t="n">
+        <v>30.167608949341</v>
+      </c>
+      <c r="P10" t="n">
+        <v>63.2498532383475</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5.09583383244798</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5.1603730337207</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.13932429348835</v>
+      </c>
+      <c r="T10" t="n">
+        <v>345.211922920014</v>
+      </c>
+      <c r="U10" t="n">
+        <v>6.54807333473058</v>
+      </c>
+      <c r="V10" t="n">
+        <v>10.3717929381106</v>
+      </c>
+      <c r="W10" t="n">
+        <v>245.524778892968</v>
+      </c>
+      <c r="X10" t="n">
+        <v>54.5296876515126</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>4.41876771497375</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>10.5069024090597</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>29.62796154523</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>7.42841938327509</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.31174303048063</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1.77511557312407</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>93.4128205878941</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>35.0968328114918</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>7.11274689569379</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8.86407757637459</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>5.86160582557024</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>20.9473705814019</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>20.9473705814019</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>12.870645418809</v>
+      </c>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10" t="n">
+        <v>5.05750363410087</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.65815330146908</v>
+      </c>
+      <c r="D11" t="n">
+        <v>51.2203008239261</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.187333048152675</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0856745491800332</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.31964440948378</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.264747165138643</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.547721346604518</v>
+      </c>
+      <c r="J11" t="n">
+        <v>37.4975387629122</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.142600828045104</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8.00783389634235</v>
+      </c>
+      <c r="M11" t="n">
+        <v>51.2203008239261</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.7981870834275</v>
+      </c>
+      <c r="O11" t="n">
+        <v>29.4501603128017</v>
+      </c>
+      <c r="P11" t="n">
+        <v>63.8259821152339</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5.18530128172792</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5.00117658560629</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.07538876902996</v>
+      </c>
+      <c r="T11" t="n">
+        <v>363.570095655617</v>
+      </c>
+      <c r="U11" t="n">
+        <v>6.86610669792354</v>
+      </c>
+      <c r="V11" t="n">
+        <v>10.045619969678</v>
+      </c>
+      <c r="W11" t="n">
+        <v>266.888222499129</v>
+      </c>
+      <c r="X11" t="n">
+        <v>55.7357584161488</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>4.7900831006916</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>11.5621840032631</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>28.4065037831467</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>7.58928865130003</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1.54112051705826</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1.81264817893885</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>91.000351969878</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>34.219410437399</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>7.35151124984281</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8.99139896439554</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>6.18792851850464</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>20.8539136131032</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>20.8539136131032</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>13.1400913252565</v>
+      </c>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11" t="n">
+        <v>5.08328876997148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.45296839155871</v>
+      </c>
+      <c r="D12" t="n">
+        <v>51.4354803655422</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.186376916317865</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0861464708228799</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.323255926107586</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.26156234907276</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.551119070053672</v>
+      </c>
+      <c r="J12" t="n">
+        <v>36.5289800978759</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.142658337678924</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.74906432642955</v>
+      </c>
+      <c r="M12" t="n">
+        <v>51.4354803655422</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.34052585433433</v>
+      </c>
+      <c r="O12" t="n">
+        <v>28.5492223578525</v>
+      </c>
+      <c r="P12" t="n">
+        <v>64.4233540185396</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5.18811097533772</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4.84139704215703</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.01110039394875</v>
+      </c>
+      <c r="T12" t="n">
+        <v>358.333130594548</v>
+      </c>
+      <c r="U12" t="n">
+        <v>6.67374696209667</v>
+      </c>
+      <c r="V12" t="n">
+        <v>12.9758412467424</v>
+      </c>
+      <c r="W12" t="n">
+        <v>252.854569855663</v>
+      </c>
+      <c r="X12" t="n">
+        <v>54.7003895262855</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>4.33621631690311</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>11.7320791745902</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>26.5316812210008</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>7.26238408033373</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>4.48210246743225</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1.92862865948208</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>97.063642871586</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>32.3236897445425</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>7.473365564424</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8.98474890622767</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>6.33531115393507</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>21.1446433877657</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>21.1446433877657</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>12.7799288133142</v>
+      </c>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12" t="n">
+        <v>5.04256293105641</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.25343355945152</v>
+      </c>
+      <c r="D13" t="n">
+        <v>51.8000466040804</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.183799699167374</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0870135503014671</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.325464415328804</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.259711585698766</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.555130741276916</v>
+      </c>
+      <c r="J13" t="n">
+        <v>35.1712803969695</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.144010749503961</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7.6311885638401</v>
+      </c>
+      <c r="M13" t="n">
+        <v>51.8000466040804</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.38115613220423</v>
+      </c>
+      <c r="O13" t="n">
+        <v>26.6103652978439</v>
+      </c>
+      <c r="P13" t="n">
+        <v>64.9938594944183</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4.90029588957765</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4.77053022028187</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.98468270430887</v>
+      </c>
+      <c r="T13" t="n">
+        <v>400.51432057442</v>
+      </c>
+      <c r="U13" t="n">
+        <v>7.24158757075334</v>
+      </c>
+      <c r="V13" t="n">
+        <v>18.1030247995283</v>
+      </c>
+      <c r="W13" t="n">
+        <v>279.300875164593</v>
+      </c>
+      <c r="X13" t="n">
+        <v>52.0430361377814</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>4.38258796602057</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>11.5004722948284</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>24.6674260110959</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>6.87247213230558</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>4.21650547787925</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1.96152514779668</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>105.802431569824</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>29.8516669541595</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>7.73404397916348</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>9.47170390732529</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6.42552189775226</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>21.5630393298708</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>21.5630393298708</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>12.9572896330685</v>
+      </c>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13" t="n">
+        <v>4.92836500859157</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.05284477748659</v>
+      </c>
+      <c r="D14" t="n">
+        <v>52.0692956163559</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.179390977158763</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0886062149183442</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.328902115464396</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.258922122440139</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.559309590426402</v>
+      </c>
+      <c r="J14" t="n">
+        <v>34.0989768694874</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.144178570018568</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7.78091931660676</v>
+      </c>
+      <c r="M14" t="n">
+        <v>52.0692956163559</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.76029682435832</v>
+      </c>
+      <c r="O14" t="n">
+        <v>28.0582497481043</v>
+      </c>
+      <c r="P14" t="n">
+        <v>65.5271919360406</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4.74478242674193</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4.86287188914206</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.02302263779664</v>
+      </c>
+      <c r="T14" t="n">
+        <v>373.961478981705</v>
+      </c>
+      <c r="U14" t="n">
+        <v>6.50265301143854</v>
+      </c>
+      <c r="V14" t="n">
+        <v>17.4050547526619</v>
+      </c>
+      <c r="W14" t="n">
+        <v>250.587957190749</v>
+      </c>
+      <c r="X14" t="n">
+        <v>51.5205357945075</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3.74726272278723</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>9.39693024128461</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>25.493533970026</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>6.66122928101186</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>3.35997325315207</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2.01631721116251</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>108.553264792933</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>31.0743938984648</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>7.94604986529265</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>9.75523067460034</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>6.56642369092606</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>22.3099087606978</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>22.3099087606978</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>12.5720247232094</v>
+      </c>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14" t="n">
+        <v>4.81391255445471</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.51466950892717</v>
+      </c>
+      <c r="D15" t="n">
+        <v>52.1727836492876</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.176742606276113</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0916486576713086</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.331594614852556</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.25601021696356</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.563423933460146</v>
+      </c>
+      <c r="J15" t="n">
+        <v>32.882455803426</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.14400390423663</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7.91151159915758</v>
+      </c>
+      <c r="M15" t="n">
+        <v>52.1727836492876</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.094319973349</v>
+      </c>
+      <c r="O15" t="n">
+        <v>29.6209330297405</v>
+      </c>
+      <c r="P15" t="n">
+        <v>66.0474982581634</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4.70947909305557</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4.94371153327895</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.05693338364317</v>
+      </c>
+      <c r="T15" t="n">
+        <v>403.894651099711</v>
+      </c>
+      <c r="U15" t="n">
+        <v>6.41315300840666</v>
+      </c>
+      <c r="V15" t="n">
+        <v>13.6897262612626</v>
+      </c>
+      <c r="W15" t="n">
+        <v>284.357192078857</v>
+      </c>
+      <c r="X15" t="n">
+        <v>53.3755491863627</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>4.09246523448903</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>10.9124847274804</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>26.8875110542713</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>6.62626530782912</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>3.57305414472188</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1.9989829538736</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>110.348053667729</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>32.928833131342</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>8.11851058258534</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>10.1515537436933</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>6.59900878900104</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>22.5588915537171</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>22.5588915537171</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>13.057981864524</v>
+      </c>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15" t="n">
+        <v>4.7387954206311</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.97486103370298</v>
+      </c>
+      <c r="D16" t="n">
+        <v>51.9947827960666</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.176995854492032</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0915489689008845</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.335340262180177</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.251454020128532</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5660421976828</v>
+      </c>
+      <c r="J16" t="n">
+        <v>31.0840053585067</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.144660894298285</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8.09436000836584</v>
+      </c>
+      <c r="M16" t="n">
+        <v>51.9947827960666</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.53923302624144</v>
+      </c>
+      <c r="O16" t="n">
+        <v>27.6592976372033</v>
+      </c>
+      <c r="P16" t="n">
+        <v>66.565822877492</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4.7421652525416</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5.05762027509944</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.10513476985142</v>
+      </c>
+      <c r="T16" t="n">
+        <v>455.013053388759</v>
+      </c>
+      <c r="U16" t="n">
+        <v>7.01262792117289</v>
+      </c>
+      <c r="V16" t="n">
+        <v>17.5577038833536</v>
+      </c>
+      <c r="W16" t="n">
+        <v>327.570820093029</v>
+      </c>
+      <c r="X16" t="n">
+        <v>52.1246370103101</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>4.53637126966316</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>11.8048065699399</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>24.5214960195371</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>6.50682904092945</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>2.66226271820367</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1.94580615386626</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>110.053624738636</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>30.3176876789614</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>7.70622242801943</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>9.72164086851779</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>6.19225428476462</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>22.8683969202435</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>22.8683969202435</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>12.1733433672835</v>
+      </c>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16" t="n">
+        <v>4.79863190115878</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.06081993542454</v>
+      </c>
+      <c r="D17" t="n">
+        <v>52.0303316094549</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.179061625347885</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0894863574163014</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.340226520822308</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.247223113027456</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.569672750232933</v>
+      </c>
+      <c r="J17" t="n">
+        <v>30.6643068913398</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.144002383386263</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.21522659927894</v>
+      </c>
+      <c r="M17" t="n">
+        <v>52.0303316094549</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.75199330745917</v>
+      </c>
+      <c r="O17" t="n">
+        <v>28.411021849061</v>
+      </c>
+      <c r="P17" t="n">
+        <v>67.0849255967603</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4.70005245066276</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5.13303859860853</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.13740281257781</v>
+      </c>
+      <c r="T17" t="n">
+        <v>496.598297272397</v>
+      </c>
+      <c r="U17" t="n">
+        <v>7.38785744577513</v>
+      </c>
+      <c r="V17" t="n">
+        <v>16.9024296303938</v>
+      </c>
+      <c r="W17" t="n">
+        <v>362.734061936901</v>
+      </c>
+      <c r="X17" t="n">
+        <v>52.2175777841389</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>4.74933053810152</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>12.2321375897324</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>24.8696226336324</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>6.34657985930656</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2.57204172237094</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2.08071403237038</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>115.299052501873</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>30.88033308195</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>7.80465812958102</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>9.81689342364721</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>6.26838394020492</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>23.3224951270229</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>23.3224951270229</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>12.4673889624561</v>
+      </c>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17" t="n">
+        <v>4.7460259828944</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.41118717869243</v>
+      </c>
+      <c r="D18" t="n">
+        <v>52.4557930477515</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1743926409374</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.090119346746046</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.342720885494568</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.246710329614794</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.575175916762195</v>
+      </c>
+      <c r="J18" t="n">
+        <v>29.835421326289</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.14605679720715</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.39767890224075</v>
+      </c>
+      <c r="M18" t="n">
+        <v>52.4557930477515</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.63585723525254</v>
+      </c>
+      <c r="O18" t="n">
+        <v>29.5332198439531</v>
+      </c>
+      <c r="P18" t="n">
+        <v>67.5995588019875</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4.50311278900778</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5.24594155684838</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.18436893203639</v>
+      </c>
+      <c r="T18" t="n">
+        <v>495.492149197082</v>
+      </c>
+      <c r="U18" t="n">
+        <v>7.12068798368903</v>
+      </c>
+      <c r="V18" t="n">
+        <v>14.3343790655811</v>
+      </c>
+      <c r="W18" t="n">
+        <v>367.251056987363</v>
+      </c>
+      <c r="X18" t="n">
+        <v>54.0496610115733</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>4.63237184674153</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>12.5733170223325</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>25.3508691674033</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>6.24642549251899</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>3.97521243522779</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.14995574507541</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>118.185279845948</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>31.6182790359911</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>7.6123316723566</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>9.66988706556601</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>6.03642445062672</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>23.7113410429985</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>23.7113410429985</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>12.6531531052684</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>4.61034468885326</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.42289367746547</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>4.80913551580874</v>
+      </c>
+      <c r="AP18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.51260424191052</v>
+      </c>
+      <c r="D19" t="n">
+        <v>52.8793731925169</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.175908534655166</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0887440081387452</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.347579892866271</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.243228775498281</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.579745998501421</v>
+      </c>
+      <c r="J19" t="n">
+        <v>28.9977951703352</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.144538788841374</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.52353087396959</v>
+      </c>
+      <c r="M19" t="n">
+        <v>52.8793731925169</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.46334228949818</v>
+      </c>
+      <c r="O19" t="n">
+        <v>30.8648281933251</v>
+      </c>
+      <c r="P19" t="n">
+        <v>68.1107788698053</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4.53306865297869</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5.32346227230233</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.21683219310247</v>
+      </c>
+      <c r="T19" t="n">
+        <v>500.458731118334</v>
+      </c>
+      <c r="U19" t="n">
+        <v>6.61431192242155</v>
+      </c>
+      <c r="V19" t="n">
+        <v>10.051540293513</v>
+      </c>
+      <c r="W19" t="n">
+        <v>372.825785055337</v>
+      </c>
+      <c r="X19" t="n">
+        <v>54.8605911820498</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>4.43288879168042</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>12.1256670170105</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>27.8466197737476</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>6.28337841871483</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>4.3987236090231</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2.19456779729354</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>120.703064151967</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>35.0878685244373</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>7.00787185679305</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>8.63254165158897</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>5.70487979244284</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>24.5536907785897</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>24.5536907785897</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>11.7292433519041</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>4.45963370844994</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.25128515599505</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>4.68746299332304</v>
+      </c>
+      <c r="AP19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.25009286807459</v>
+      </c>
+      <c r="D20" t="n">
+        <v>53.3762662572431</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.173299786122656</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0901430327099998</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.350495555977385</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.236927233528889</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.584260939012125</v>
+      </c>
+      <c r="J20" t="n">
+        <v>30.0562539285217</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.149134391661028</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.57536795154303</v>
+      </c>
+      <c r="M20" t="n">
+        <v>53.3762662572431</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.22999292773884</v>
+      </c>
+      <c r="O20" t="n">
+        <v>32.5383788301509</v>
+      </c>
+      <c r="P20" t="n">
+        <v>68.6093356159705</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4.32460268748169</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5.35609669974537</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.23212321611865</v>
+      </c>
+      <c r="T20" t="n">
+        <v>495.568289150114</v>
+      </c>
+      <c r="U20" t="n">
+        <v>6.48093493072337</v>
+      </c>
+      <c r="V20" t="n">
+        <v>12.1790113589641</v>
+      </c>
+      <c r="W20" t="n">
+        <v>364.679982129463</v>
+      </c>
+      <c r="X20" t="n">
+        <v>54.7354201429721</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>4.21832244720709</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>11.7624686309024</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>26.5559372214691</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>6.39666655980686</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>4.93766952582359</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2.24955275001045</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>121.61337476157</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>33.0856093908217</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>6.89274858658334</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>8.77129841314597</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>5.43887839074083</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>24.7307566642048</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>24.7307566642048</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>12.187614489036</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>4.30464559456613</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.9999337042871</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>4.69565550118608</v>
+      </c>
+      <c r="AP20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.982017559085979</v>
+      </c>
+      <c r="D21" t="n">
+        <v>53.773694859423</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.173570491791171</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0910902862806353</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.354566709550196</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.23386536987238</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.587960167662827</v>
+      </c>
+      <c r="J21" t="n">
+        <v>29.7298924581679</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.146907142505636</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8.5682166223862</v>
+      </c>
+      <c r="M21" t="n">
+        <v>53.773694859423</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.27157700552501</v>
+      </c>
+      <c r="O21" t="n">
+        <v>31.7635196569391</v>
+      </c>
+      <c r="P21" t="n">
+        <v>69.1050266744916</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4.23727376543999</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5.3515027547898</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.23006376706684</v>
+      </c>
+      <c r="T21" t="n">
+        <v>507.982493894278</v>
+      </c>
+      <c r="U21" t="n">
+        <v>6.40634146640728</v>
+      </c>
+      <c r="V21" t="n">
+        <v>12.6349629070299</v>
+      </c>
+      <c r="W21" t="n">
+        <v>376.52157567697</v>
+      </c>
+      <c r="X21" t="n">
+        <v>54.0716748550449</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>4.20845687127452</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>11.7649061383384</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>26.3418116572688</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>6.38496579095682</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>6.26373836020087</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2.28573696339764</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>123.348120955874</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>33.2904860253787</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>6.82131903125927</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>8.63652159802119</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>5.39069987964244</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>23.4830948923375</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>23.4870462637958</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>11.7283889707307</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>4.16946185625938</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.86029882001589</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>4.64000799088616</v>
+      </c>
+      <c r="AP21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3968,123 +9991,132 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="N1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL1" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>34</v>
-      </c>
       <c r="AM1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP1" t="s">
         <v>51</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>52</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>53</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4096,118 +10128,127 @@
         <v>56</v>
       </c>
       <c r="C2" t="n">
-        <v>3.87848231532034</v>
+        <v>2.25247458758544</v>
       </c>
       <c r="D2" t="n">
-        <v>47.8170883140897</v>
+        <v>3.99308568912509</v>
       </c>
       <c r="E2" t="n">
-        <v>0.19019624153713</v>
+        <v>3.77967013891095</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0838436937673829</v>
+        <v>34.0347177119194</v>
       </c>
       <c r="G2" t="n">
-        <v>0.285457630422042</v>
+        <v>85.6761953722945</v>
       </c>
       <c r="H2" t="n">
-        <v>0.300068882246681</v>
+        <v>3.26954672198745</v>
       </c>
       <c r="I2" t="n">
-        <v>0.496813376971093</v>
+        <v>13.1113277333594</v>
       </c>
       <c r="J2" t="n">
-        <v>28.7957731161736</v>
+        <v>14.7293543898829</v>
       </c>
       <c r="K2" t="n">
-        <v>0.140433552027341</v>
+        <v>8.26849115543555</v>
       </c>
       <c r="L2" t="n">
-        <v>8.69893634023338</v>
+        <v>3.93713607303509</v>
       </c>
       <c r="M2" t="n">
-        <v>47.8170883140897</v>
+        <v>0.474427805205105</v>
       </c>
       <c r="N2" t="n">
-        <v>2.89906132030032</v>
+        <v>60.2133856280856</v>
       </c>
       <c r="O2" t="n">
-        <v>36.8911969074651</v>
+        <v>0.0412899064403639</v>
       </c>
       <c r="P2" t="n">
-        <v>58.2729930174503</v>
+        <v>0.0383736411034588</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.57820141734458</v>
+        <v>0.0797432780134069</v>
       </c>
       <c r="R2" t="n">
-        <v>5.40557321776041</v>
+        <v>0.391190695747457</v>
       </c>
       <c r="S2" t="n">
-        <v>2.20591816226575</v>
+        <v>0.449402478695348</v>
       </c>
       <c r="T2" t="n">
-        <v>148.809824202649</v>
+        <v>0.630053962226869</v>
       </c>
       <c r="U2" t="n">
-        <v>5.25157082047573</v>
+        <v>15.5470184471951</v>
       </c>
       <c r="V2" t="n">
-        <v>8.50945153249632</v>
+        <v>12.0609513572925</v>
       </c>
       <c r="W2" t="n">
-        <v>85.9920761563752</v>
+        <v>12.9484695333217</v>
       </c>
       <c r="X2" t="n">
-        <v>50.1861708263672</v>
+        <v>565.863833971174</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.9004204452532</v>
+        <v>7.79053226095742</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.778021312807</v>
+        <v>0.266126326246475</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.8906535386614</v>
+        <v>286.30065267987</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.61562783103297</v>
+        <v>47.8815853141695</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.21716494626669</v>
+        <v>3.78051819061762</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.00580097595823</v>
+        <v>15.3843875408014</v>
       </c>
       <c r="AE2" t="n">
-        <v>59.5886874848583</v>
+        <v>34.031261157716</v>
       </c>
       <c r="AF2" t="n">
-        <v>41.3044329457813</v>
+        <v>279.166664482966</v>
       </c>
       <c r="AG2" t="n">
-        <v>6.96625719695002</v>
+        <v>51.852288359584</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.74627225812919</v>
+        <v>60.2133856280856</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.34478873790538</v>
+        <v>35.706735069509</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20.0025287124289</v>
+        <v>1.98406375509724</v>
       </c>
       <c r="AK2" t="n">
-        <v>20.0025287124289</v>
+        <v>0.00323242963301464</v>
       </c>
       <c r="AL2" t="n">
-        <v>13.3301488670711</v>
-      </c>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2" t="n">
-        <v>6.49421342059485</v>
+        <v>2.39502167583854</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.230762503837419</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.234000148423264</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>3.57867512069204</v>
+      </c>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2" t="n">
+        <v>3.56276223929671</v>
       </c>
     </row>
     <row r="3">
@@ -4218,118 +10259,127 @@
         <v>56</v>
       </c>
       <c r="C3" t="n">
-        <v>1.86930245433001</v>
+        <v>2.51199256625529</v>
       </c>
       <c r="D3" t="n">
-        <v>48.3929454847142</v>
+        <v>4.03264927578318</v>
       </c>
       <c r="E3" t="n">
-        <v>0.189478878668491</v>
+        <v>3.85515479433799</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0837262208264412</v>
+        <v>34.441456483496</v>
       </c>
       <c r="G3" t="n">
-        <v>0.288634085942836</v>
+        <v>85.9136849505757</v>
       </c>
       <c r="H3" t="n">
-        <v>0.296535690908472</v>
+        <v>3.69520592393238</v>
       </c>
       <c r="I3" t="n">
-        <v>0.50306131214304</v>
+        <v>14.5081811961064</v>
       </c>
       <c r="J3" t="n">
-        <v>29.6499000767822</v>
+        <v>15.1616189593337</v>
       </c>
       <c r="K3" t="n">
-        <v>0.141625123653889</v>
+        <v>8.26738794134953</v>
       </c>
       <c r="L3" t="n">
-        <v>8.69887928409825</v>
+        <v>3.93646163383634</v>
       </c>
       <c r="M3" t="n">
-        <v>48.3929454847142</v>
+        <v>-2.16717933409779</v>
       </c>
       <c r="N3" t="n">
-        <v>2.85329569794841</v>
+        <v>60.7161034924236</v>
       </c>
       <c r="O3" t="n">
-        <v>38.2385407861701</v>
+        <v>0.0413559612518548</v>
       </c>
       <c r="P3" t="n">
-        <v>58.9179287492948</v>
+        <v>0.0358672002030737</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.0471929556444</v>
+        <v>0.0825885266032221</v>
       </c>
       <c r="R3" t="n">
-        <v>5.40543946813019</v>
+        <v>0.390924693138464</v>
       </c>
       <c r="S3" t="n">
-        <v>2.20583883519627</v>
+        <v>0.44926361880313</v>
       </c>
       <c r="T3" t="n">
-        <v>154.822193256698</v>
+        <v>0.633888919221832</v>
       </c>
       <c r="U3" t="n">
-        <v>5.2786048257841</v>
+        <v>17.4478281792918</v>
       </c>
       <c r="V3" t="n">
-        <v>9.26082616967635</v>
+        <v>14.112918437684</v>
       </c>
       <c r="W3" t="n">
-        <v>88.1979943397261</v>
+        <v>12.9466603567774</v>
       </c>
       <c r="X3" t="n">
-        <v>48.0410228085359</v>
+        <v>535.46533167029</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.85305819591151</v>
+        <v>7.9050425681858</v>
       </c>
       <c r="Z3" t="n">
-        <v>10.9485192335566</v>
+        <v>0.266099366173073</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.2402081269076</v>
+        <v>273.302945773597</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.92504719452921</v>
+        <v>47.9455794413478</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.55074143546235</v>
+        <v>3.85396932660073</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.06687835529201</v>
+        <v>15.0916497225293</v>
       </c>
       <c r="AE3" t="n">
-        <v>63.0496737487932</v>
+        <v>34.4398618910745</v>
       </c>
       <c r="AF3" t="n">
-        <v>42.7014923666783</v>
+        <v>261.201893395204</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.00007731455162</v>
+        <v>51.7883211924791</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.35344683431654</v>
+        <v>60.7161034924236</v>
       </c>
       <c r="AI3" t="n">
-        <v>5.60310540948541</v>
+        <v>37.0996998128207</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19.8943674782352</v>
+        <v>1.75032000287121</v>
       </c>
       <c r="AK3" t="n">
-        <v>19.8943674782352</v>
+        <v>0.00323264002762423</v>
       </c>
       <c r="AL3" t="n">
-        <v>13.0020299211189</v>
-      </c>
-      <c r="AM3"/>
-      <c r="AN3"/>
-      <c r="AO3"/>
-      <c r="AP3" t="n">
-        <v>6.10467971845054</v>
+        <v>2.39041877870556</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.229583221937943</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.230136042917947</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>3.11759126033408</v>
+      </c>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3" t="n">
+        <v>3.56276223929671</v>
       </c>
     </row>
     <row r="4">
@@ -4340,118 +10390,127 @@
         <v>56</v>
       </c>
       <c r="C4" t="n">
-        <v>2.45754135733455</v>
+        <v>2.59820854733469</v>
       </c>
       <c r="D4" t="n">
-        <v>48.9397392081688</v>
+        <v>3.64513677207317</v>
       </c>
       <c r="E4" t="n">
-        <v>0.191242158496674</v>
+        <v>3.51799388228251</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0819440886492228</v>
+        <v>34.9229332991817</v>
       </c>
       <c r="G4" t="n">
-        <v>0.290756894532092</v>
+        <v>86.1412770298758</v>
       </c>
       <c r="H4" t="n">
-        <v>0.291681022619141</v>
+        <v>3.94290043704764</v>
       </c>
       <c r="I4" t="n">
-        <v>0.510220399549942</v>
+        <v>16.1884745594588</v>
       </c>
       <c r="J4" t="n">
-        <v>28.8727745560389</v>
+        <v>16.5692829247859</v>
       </c>
       <c r="K4" t="n">
-        <v>0.144375835703038</v>
+        <v>8.18807837387293</v>
       </c>
       <c r="L4" t="n">
-        <v>8.7072550962591</v>
+        <v>3.89061058378762</v>
       </c>
       <c r="M4" t="n">
-        <v>48.9397392081688</v>
+        <v>-6.24322549804296</v>
       </c>
       <c r="N4" t="n">
-        <v>2.83281437530462</v>
+        <v>61.0714021955353</v>
       </c>
       <c r="O4" t="n">
-        <v>38.1432340220449</v>
+        <v>0.0414482847080224</v>
       </c>
       <c r="P4" t="n">
-        <v>59.5684000669339</v>
+        <v>0.0353425743496763</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.92965977535746</v>
+        <v>0.0796300090775523</v>
       </c>
       <c r="R4" t="n">
-        <v>5.41185688346366</v>
+        <v>0.394489865686899</v>
       </c>
       <c r="S4" t="n">
-        <v>2.20871210711065</v>
+        <v>0.44908926617789</v>
       </c>
       <c r="T4" t="n">
-        <v>163.175460179452</v>
+        <v>0.636457724768031</v>
       </c>
       <c r="U4" t="n">
-        <v>5.26088994464784</v>
+        <v>18.1717673676089</v>
       </c>
       <c r="V4" t="n">
-        <v>10.483553955065</v>
+        <v>15.9919454071205</v>
       </c>
       <c r="W4" t="n">
-        <v>93.7538194804247</v>
+        <v>12.8304326419466</v>
       </c>
       <c r="X4" t="n">
-        <v>46.8766728420181</v>
+        <v>245.698930522986</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.83451879033874</v>
+        <v>7.2578655708553</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.70005407513498</v>
+        <v>1.34605630552168</v>
       </c>
       <c r="AA4" t="n">
-        <v>38.1445931288745</v>
+        <v>117.346898989897</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.22189162796404</v>
+        <v>47.8941761445078</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.93027756051446</v>
+        <v>3.51660834014202</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.04124286876689</v>
+        <v>15.7753605477959</v>
       </c>
       <c r="AE4" t="n">
-        <v>64.9096884275315</v>
+        <v>34.9195245935651</v>
       </c>
       <c r="AF4" t="n">
-        <v>42.643121591571</v>
+        <v>125.584711851461</v>
       </c>
       <c r="AG4" t="n">
-        <v>6.94610619345345</v>
+        <v>50.7658611560221</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.07070624222389</v>
+        <v>61.0714021955353</v>
       </c>
       <c r="AI4" t="n">
-        <v>5.61893456962718</v>
+        <v>37.6558622401154</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19.9204325722726</v>
+        <v>2.26517223078172</v>
       </c>
       <c r="AK4" t="n">
-        <v>19.9204325722726</v>
+        <v>0.00252426298102398</v>
       </c>
       <c r="AL4" t="n">
-        <v>12.981587859339</v>
-      </c>
-      <c r="AM4"/>
-      <c r="AN4"/>
-      <c r="AO4"/>
-      <c r="AP4" t="n">
-        <v>5.8470647879677</v>
+        <v>2.25164257907339</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.212038090406014</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.212038090406014</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>4.90627398083931</v>
+      </c>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4" t="n">
+        <v>3.56276223929671</v>
       </c>
     </row>
     <row r="5">
@@ -4462,118 +10521,127 @@
         <v>56</v>
       </c>
       <c r="C5" t="n">
-        <v>2.75023749147729</v>
+        <v>2.38030341214211</v>
       </c>
       <c r="D5" t="n">
-        <v>49.2558562000294</v>
+        <v>3.5464249136673</v>
       </c>
       <c r="E5" t="n">
-        <v>0.190296098962195</v>
+        <v>3.41191028106733</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07698887423036</v>
+        <v>33.8004193112828</v>
       </c>
       <c r="G5" t="n">
-        <v>0.300836757193143</v>
+        <v>86.3005409299688</v>
       </c>
       <c r="H5" t="n">
-        <v>0.28952127167476</v>
+        <v>3.54504678521855</v>
       </c>
       <c r="I5" t="n">
-        <v>0.516287728000982</v>
+        <v>13.2880576669074</v>
       </c>
       <c r="J5" t="n">
-        <v>29.3983121605959</v>
+        <v>15.5692015354853</v>
       </c>
       <c r="K5" t="n">
-        <v>0.14235699793961</v>
+        <v>8.14648858692698</v>
       </c>
       <c r="L5" t="n">
-        <v>8.58731707800194</v>
+        <v>3.87167175516617</v>
       </c>
       <c r="M5" t="n">
-        <v>49.2558562000294</v>
+        <v>6.9898528102128</v>
       </c>
       <c r="N5" t="n">
-        <v>2.60691817789685</v>
+        <v>61.5476720884204</v>
       </c>
       <c r="O5" t="n">
-        <v>41.1283400068852</v>
+        <v>0.0407684065804076</v>
       </c>
       <c r="P5" t="n">
-        <v>60.3216915972981</v>
+        <v>0.0364434067358016</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.47408626209786</v>
+        <v>0.0794837080863842</v>
       </c>
       <c r="R5" t="n">
-        <v>5.33880362331895</v>
+        <v>0.395263499481369</v>
       </c>
       <c r="S5" t="n">
-        <v>2.18008939001315</v>
+        <v>0.448040979116659</v>
       </c>
       <c r="T5" t="n">
-        <v>154.461620862413</v>
+        <v>0.639945619667517</v>
       </c>
       <c r="U5" t="n">
-        <v>5.06358214334615</v>
+        <v>16.2862900851751</v>
       </c>
       <c r="V5" t="n">
-        <v>9.8832577469542</v>
+        <v>11.7892065420511</v>
       </c>
       <c r="W5" t="n">
-        <v>89.6192869793154</v>
+        <v>12.7610584679892</v>
       </c>
       <c r="X5" t="n">
-        <v>43.9907220985078</v>
+        <v>273.451359475555</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.61225614888795</v>
+        <v>6.97623176271257</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.0617036503148</v>
+        <v>0.339641000362862</v>
       </c>
       <c r="AA5" t="n">
-        <v>41.130396098521</v>
+        <v>133.306923329811</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.41718190789425</v>
+        <v>48.5981558791385</v>
       </c>
       <c r="AC5" t="n">
-        <v>15.6358129149098</v>
+        <v>3.40956876075903</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.07699268064676</v>
+        <v>15.4039985874687</v>
       </c>
       <c r="AE5" t="n">
-        <v>61.9080847857341</v>
+        <v>33.799732507258</v>
       </c>
       <c r="AF5" t="n">
-        <v>46.1290096673862</v>
+        <v>139.497904386847</v>
       </c>
       <c r="AG5" t="n">
-        <v>7.01307408087812</v>
+        <v>51.0566350385852</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.99420268057072</v>
+        <v>61.5476720884204</v>
       </c>
       <c r="AI5" t="n">
-        <v>5.74537212923287</v>
+        <v>35.7042365716374</v>
       </c>
       <c r="AJ5" t="n">
-        <v>20.0009259976695</v>
+        <v>2.94472605815486</v>
       </c>
       <c r="AK5" t="n">
-        <v>20.0009259976695</v>
+        <v>0.00252530687062692</v>
       </c>
       <c r="AL5" t="n">
-        <v>13.6664127773781</v>
-      </c>
-      <c r="AM5"/>
-      <c r="AN5"/>
-      <c r="AO5"/>
-      <c r="AP5" t="n">
-        <v>5.48575494225279</v>
+        <v>2.38894029961307</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.234853538968304</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.234853538968304</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>4.38143389156674</v>
+      </c>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5" t="n">
+        <v>3.56276223929671</v>
       </c>
     </row>
     <row r="6">
@@ -4584,118 +10652,127 @@
         <v>56</v>
       </c>
       <c r="C6" t="n">
-        <v>2.71697130497483</v>
+        <v>2.05289307349188</v>
       </c>
       <c r="D6" t="n">
-        <v>49.5910330385644</v>
+        <v>3.38829854074661</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1854259478368</v>
+        <v>3.33447833550494</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0746861798197745</v>
+        <v>33.5507424044693</v>
       </c>
       <c r="G6" t="n">
-        <v>0.306282290122183</v>
+        <v>86.4558445798199</v>
       </c>
       <c r="H6" t="n">
-        <v>0.28506404091957</v>
+        <v>3.44789693546798</v>
       </c>
       <c r="I6" t="n">
-        <v>0.521912682931457</v>
+        <v>12.0443954100112</v>
       </c>
       <c r="J6" t="n">
-        <v>31.6426746047402</v>
+        <v>14.5184952278405</v>
       </c>
       <c r="K6" t="n">
-        <v>0.148541541301657</v>
+        <v>8.28490700221851</v>
       </c>
       <c r="L6" t="n">
-        <v>8.49634876268335</v>
+        <v>3.95020813324596</v>
       </c>
       <c r="M6" t="n">
-        <v>49.5910330385644</v>
+        <v>7.79965418759708</v>
       </c>
       <c r="N6" t="n">
-        <v>2.59092871532641</v>
+        <v>62.1489667869895</v>
       </c>
       <c r="O6" t="n">
-        <v>40.3242053229289</v>
+        <v>0.0411426633623679</v>
       </c>
       <c r="P6" t="n">
-        <v>60.9285870304279</v>
+        <v>0.035189693809311</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.35555075632931</v>
+        <v>0.0808398009255848</v>
       </c>
       <c r="R6" t="n">
-        <v>5.28578347218706</v>
+        <v>0.395341375189097</v>
       </c>
       <c r="S6" t="n">
-        <v>2.16240617522036</v>
+        <v>0.447486466713691</v>
       </c>
       <c r="T6" t="n">
-        <v>163.699475319297</v>
+        <v>0.644496073168372</v>
       </c>
       <c r="U6" t="n">
-        <v>4.9638950039153</v>
+        <v>13.5480186618009</v>
       </c>
       <c r="V6" t="n">
-        <v>9.57657540556036</v>
+        <v>10.3945319083228</v>
       </c>
       <c r="W6" t="n">
-        <v>94.7399006070254</v>
+        <v>12.9566190409641</v>
       </c>
       <c r="X6" t="n">
-        <v>44.9061804271606</v>
+        <v>324.06980553902</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.59154505312303</v>
+        <v>7.00612103681469</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.50728100229745</v>
+        <v>3.9502416271237</v>
       </c>
       <c r="AA6" t="n">
-        <v>40.3250694357952</v>
+        <v>153.195629722096</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.02739307446865</v>
+        <v>47.0545395186301</v>
       </c>
       <c r="AC6" t="n">
-        <v>20.2935095891993</v>
+        <v>3.33094526226114</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.03693312239172</v>
+        <v>14.938619884795</v>
       </c>
       <c r="AE6" t="n">
-        <v>65.5538534016249</v>
+        <v>33.5502073802519</v>
       </c>
       <c r="AF6" t="n">
-        <v>45.5172211738645</v>
+        <v>158.861042342239</v>
       </c>
       <c r="AG6" t="n">
-        <v>6.93875704278725</v>
+        <v>48.9943647719574</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.85124655531323</v>
+        <v>62.1489667869895</v>
       </c>
       <c r="AI6" t="n">
-        <v>5.70557306182884</v>
+        <v>33.9790168445197</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20.3044004480484</v>
+        <v>1.1141741049786</v>
       </c>
       <c r="AK6" t="n">
-        <v>20.3044004480484</v>
+        <v>0.00252582029136813</v>
       </c>
       <c r="AL6" t="n">
-        <v>13.7232570723224</v>
-      </c>
-      <c r="AM6"/>
-      <c r="AN6"/>
-      <c r="AO6"/>
-      <c r="AP6" t="n">
-        <v>5.38818464088632</v>
+        <v>2.48540716670624</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.239952927679973</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.239952927679973</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>4.16792156953399</v>
+      </c>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6" t="n">
+        <v>3.56276223929671</v>
       </c>
     </row>
     <row r="7">
@@ -4706,118 +10783,127 @@
         <v>56</v>
       </c>
       <c r="C7" t="n">
-        <v>7.37897468057129</v>
+        <v>1.94386624717789</v>
       </c>
       <c r="D7" t="n">
-        <v>50.2917056609664</v>
+        <v>3.70520188873218</v>
       </c>
       <c r="E7" t="n">
-        <v>0.185861017054412</v>
+        <v>3.35942365269539</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0751417164143172</v>
+        <v>37.1996788264844</v>
       </c>
       <c r="G7" t="n">
-        <v>0.309772342036201</v>
+        <v>86.6102066416247</v>
       </c>
       <c r="H7" t="n">
-        <v>0.279892543147813</v>
+        <v>3.53039452778752</v>
       </c>
       <c r="I7" t="n">
-        <v>0.529418953510835</v>
+        <v>10.4156602482919</v>
       </c>
       <c r="J7" t="n">
-        <v>35.1920860199518</v>
+        <v>12.723994384088</v>
       </c>
       <c r="K7" t="n">
-        <v>0.149332381346958</v>
+        <v>8.49808184028118</v>
       </c>
       <c r="L7" t="n">
-        <v>8.32965946817026</v>
+        <v>4.06458585075442</v>
       </c>
       <c r="M7" t="n">
-        <v>50.2917056609664</v>
+        <v>7.44358623500972</v>
       </c>
       <c r="N7" t="n">
-        <v>3.26937728268155</v>
+        <v>62.7762073236527</v>
       </c>
       <c r="O7" t="n">
-        <v>36.4138151165612</v>
+        <v>0.0437319370118173</v>
       </c>
       <c r="P7" t="n">
-        <v>61.5117699025263</v>
+        <v>0.0352106226701843</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.41086311893851</v>
+        <v>0.0811230401202927</v>
       </c>
       <c r="R7" t="n">
-        <v>5.18771326747073</v>
+        <v>0.395310048305491</v>
       </c>
       <c r="S7" t="n">
-        <v>2.13067621610344</v>
+        <v>0.444624351892071</v>
       </c>
       <c r="T7" t="n">
-        <v>218.382775402857</v>
+        <v>0.64932601868754</v>
       </c>
       <c r="U7" t="n">
-        <v>5.54667451473158</v>
+        <v>12.6638165439917</v>
       </c>
       <c r="V7" t="n">
-        <v>9.36383448184952</v>
+        <v>8.888285247029</v>
       </c>
       <c r="W7" t="n">
-        <v>135.248306762657</v>
+        <v>13.2688126067291</v>
       </c>
       <c r="X7" t="n">
-        <v>47.8331126941009</v>
+        <v>395.877269659264</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.26413074959442</v>
+        <v>7.12238733279976</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.20372868952283</v>
+        <v>0.77991285228741</v>
       </c>
       <c r="AA7" t="n">
-        <v>36.4143599999688</v>
+        <v>185.351541173999</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.3077790289598</v>
+        <v>46.4565612476695</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.32649559555505</v>
+        <v>3.35694232051025</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.96586609701248</v>
+        <v>14.6265912425064</v>
       </c>
       <c r="AE7" t="n">
-        <v>79.4450730238253</v>
+        <v>37.2001049978564</v>
       </c>
       <c r="AF7" t="n">
-        <v>42.8064699717804</v>
+        <v>207.655750724367</v>
       </c>
       <c r="AG7" t="n">
-        <v>7.33023315969938</v>
+        <v>52.7662303898846</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.10873779346666</v>
+        <v>62.7762073236527</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.12842454550043</v>
+        <v>33.4972288473417</v>
       </c>
       <c r="AJ7" t="n">
-        <v>20.3707416604583</v>
+        <v>1.59665258910635</v>
       </c>
       <c r="AK7" t="n">
-        <v>20.3707416604583</v>
+        <v>0.00252579970863684</v>
       </c>
       <c r="AL7" t="n">
-        <v>13.2234175237385</v>
-      </c>
-      <c r="AM7"/>
-      <c r="AN7"/>
-      <c r="AO7"/>
-      <c r="AP7" t="n">
-        <v>5.26488969359817</v>
+        <v>2.47780951417274</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.237425172611863</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.237425172611863</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>3.83995095280156</v>
+      </c>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7" t="n">
+        <v>3.56276223929671</v>
       </c>
     </row>
     <row r="8">
@@ -4828,118 +10914,127 @@
         <v>56</v>
       </c>
       <c r="C8" t="n">
-        <v>7.67376086066625</v>
+        <v>1.83971384192917</v>
       </c>
       <c r="D8" t="n">
-        <v>51.0030476015034</v>
+        <v>3.57378694746334</v>
       </c>
       <c r="E8" t="n">
-        <v>0.185373842707422</v>
+        <v>3.42423724584785</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0744481249309711</v>
+        <v>36.1539700905496</v>
       </c>
       <c r="G8" t="n">
-        <v>0.312223551023042</v>
+        <v>86.7647847835626</v>
       </c>
       <c r="H8" t="n">
-        <v>0.277820577545953</v>
+        <v>3.39642535319683</v>
       </c>
       <c r="I8" t="n">
-        <v>0.53698415492466</v>
+        <v>9.44048880053178</v>
       </c>
       <c r="J8" t="n">
-        <v>34.5253294889528</v>
+        <v>11.8619109426472</v>
       </c>
       <c r="K8" t="n">
-        <v>0.150133903792706</v>
+        <v>8.77477521416192</v>
       </c>
       <c r="L8" t="n">
-        <v>8.35424670102064</v>
+        <v>4.21273499835909</v>
       </c>
       <c r="M8" t="n">
-        <v>51.0030476015034</v>
+        <v>7.06253457425399</v>
       </c>
       <c r="N8" t="n">
-        <v>3.02943283243005</v>
+        <v>63.2789366632259</v>
       </c>
       <c r="O8" t="n">
-        <v>35.9041247266815</v>
+        <v>0.0433940174582247</v>
       </c>
       <c r="P8" t="n">
-        <v>62.092037187622</v>
+        <v>0.0355536000938459</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.88306812513092</v>
+        <v>0.0801898299040582</v>
       </c>
       <c r="R8" t="n">
-        <v>5.21046787742961</v>
+        <v>0.396573692271719</v>
       </c>
       <c r="S8" t="n">
-        <v>2.15030645864458</v>
+        <v>0.444288860272463</v>
       </c>
       <c r="T8" t="n">
-        <v>237.693027294636</v>
+        <v>0.653342422633047</v>
       </c>
       <c r="U8" t="n">
-        <v>5.28884434335489</v>
+        <v>11.9524584406973</v>
       </c>
       <c r="V8" t="n">
-        <v>12.5051429963866</v>
+        <v>7.81540034664235</v>
       </c>
       <c r="W8" t="n">
-        <v>150.820826717144</v>
+        <v>13.677806154549</v>
       </c>
       <c r="X8" t="n">
-        <v>45.9164205427918</v>
+        <v>457.272407417084</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.02720002102341</v>
+        <v>7.01675973280482</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.73630559773551</v>
+        <v>0.254313152049856</v>
       </c>
       <c r="AA8" t="n">
-        <v>35.9031410621296</v>
+        <v>221.199594256903</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.17474504087641</v>
+        <v>48.009227425402</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.12145276313937</v>
+        <v>3.42568681669372</v>
       </c>
       <c r="AD8" t="n">
-        <v>1.82847312351769</v>
+        <v>14.2995964012275</v>
       </c>
       <c r="AE8" t="n">
-        <v>82.1628351617393</v>
+        <v>36.1533097448872</v>
       </c>
       <c r="AF8" t="n">
-        <v>41.5784820526332</v>
+        <v>235.076786731624</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.30874224162548</v>
+        <v>51.7389117838311</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.14378141400414</v>
+        <v>63.2789366632259</v>
       </c>
       <c r="AI8" t="n">
-        <v>6.05892769195346</v>
+        <v>32.799891970393</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20.4439943267666</v>
+        <v>2.00617186657775</v>
       </c>
       <c r="AK8" t="n">
-        <v>20.4439943267666</v>
+        <v>0.00252589816572343</v>
       </c>
       <c r="AL8" t="n">
-        <v>13.8052434658275</v>
-      </c>
-      <c r="AM8"/>
-      <c r="AN8"/>
-      <c r="AO8"/>
-      <c r="AP8" t="n">
-        <v>4.96916693632654</v>
+        <v>2.63198588868381</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.255115714738066</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.255115714738066</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>4.18513027455782</v>
+      </c>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8"/>
+      <c r="AS8" t="n">
+        <v>3.56276223929671</v>
       </c>
     </row>
     <row r="9">
@@ -4950,118 +11045,127 @@
         <v>56</v>
       </c>
       <c r="C9" t="n">
-        <v>5.93937548520742</v>
+        <v>1.71877804482529</v>
       </c>
       <c r="D9" t="n">
-        <v>51.1530549540196</v>
+        <v>3.55221490177229</v>
       </c>
       <c r="E9" t="n">
-        <v>0.189930272335945</v>
+        <v>3.59203653642888</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0754294613116415</v>
+        <v>35.1621561767566</v>
       </c>
       <c r="G9" t="n">
-        <v>0.314391805627351</v>
+        <v>86.9176439588519</v>
       </c>
       <c r="H9" t="n">
-        <v>0.26940156603965</v>
+        <v>3.5602196965641</v>
       </c>
       <c r="I9" t="n">
-        <v>0.540974405567021</v>
+        <v>8.18537762853355</v>
       </c>
       <c r="J9" t="n">
-        <v>36.9428373936684</v>
+        <v>10.3813851334449</v>
       </c>
       <c r="K9" t="n">
-        <v>0.150846894685609</v>
+        <v>8.98827243737533</v>
       </c>
       <c r="L9" t="n">
-        <v>8.3376412554075</v>
+        <v>4.32720773031935</v>
       </c>
       <c r="M9" t="n">
-        <v>51.1530549540196</v>
+        <v>7.60486318248706</v>
       </c>
       <c r="N9" t="n">
-        <v>4.17109298098727</v>
+        <v>63.6033496617735</v>
       </c>
       <c r="O9" t="n">
-        <v>32.1093395393457</v>
+        <v>0.0451947156991951</v>
       </c>
       <c r="P9" t="n">
-        <v>62.6704322002594</v>
+        <v>0.0349801291453725</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.87177549770035</v>
+        <v>0.0818456277347786</v>
       </c>
       <c r="R9" t="n">
-        <v>5.20483222539337</v>
+        <v>0.396689087030642</v>
       </c>
       <c r="S9" t="n">
-        <v>2.15573153027843</v>
+        <v>0.441290440389951</v>
       </c>
       <c r="T9" t="n">
-        <v>315.458100885726</v>
+        <v>0.655956074791646</v>
       </c>
       <c r="U9" t="n">
-        <v>6.29651502426546</v>
+        <v>10.605616147697</v>
       </c>
       <c r="V9" t="n">
-        <v>10.0082969742173</v>
+        <v>6.70903881811496</v>
       </c>
       <c r="W9" t="n">
-        <v>221.003044407295</v>
+        <v>13.9923511385671</v>
       </c>
       <c r="X9" t="n">
-        <v>52.5880283628826</v>
+        <v>554.814140297558</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.16311936691731</v>
+        <v>7.15520468362561</v>
       </c>
       <c r="Z9" t="n">
-        <v>10.522874048255</v>
+        <v>0.178731593720076</v>
       </c>
       <c r="AA9" t="n">
-        <v>31.7062309745235</v>
+        <v>277.134152115826</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.40650336005638</v>
+        <v>49.2807756168609</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.51389859187247</v>
+        <v>3.58965186820215</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.79711236749058</v>
+        <v>13.9750913734774</v>
       </c>
       <c r="AE9" t="n">
-        <v>89.1525534253014</v>
+        <v>35.1651108974675</v>
       </c>
       <c r="AF9" t="n">
-        <v>37.4037842070823</v>
+        <v>276.822541084228</v>
       </c>
       <c r="AG9" t="n">
-        <v>7.42514417899743</v>
+        <v>50.5427917300916</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.0164212208697</v>
+        <v>63.6033496617735</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.29787316416117</v>
+        <v>32.7544713962357</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20.5271813023477</v>
+        <v>2.22345513242058</v>
       </c>
       <c r="AK9" t="n">
-        <v>20.5271813023477</v>
+        <v>0.00252648576679176</v>
       </c>
       <c r="AL9" t="n">
-        <v>13.0318975400192</v>
-      </c>
-      <c r="AM9"/>
-      <c r="AN9"/>
-      <c r="AO9"/>
-      <c r="AP9" t="n">
-        <v>5.05337876770029</v>
+        <v>2.62501871169664</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.250122090912384</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.250122090912384</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>3.87857011083322</v>
+      </c>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9" t="n">
+        <v>3.56276223929671</v>
       </c>
     </row>
     <row r="10">
@@ -5072,118 +11176,127 @@
         <v>56</v>
       </c>
       <c r="C10" t="n">
-        <v>2.95816242492774</v>
+        <v>1.70192162038881</v>
       </c>
       <c r="D10" t="n">
-        <v>51.1278901482109</v>
+        <v>3.6305821625414</v>
       </c>
       <c r="E10" t="n">
-        <v>0.188565162132454</v>
+        <v>3.86678503814956</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0795799267231952</v>
+        <v>34.2068128227716</v>
       </c>
       <c r="G10" t="n">
-        <v>0.317425406237951</v>
+        <v>87.0694064855532</v>
       </c>
       <c r="H10" t="n">
-        <v>0.267246524173232</v>
+        <v>3.69028219687767</v>
       </c>
       <c r="I10" t="n">
-        <v>0.544122878483148</v>
+        <v>7.92323526376285</v>
       </c>
       <c r="J10" t="n">
-        <v>37.3053258417042</v>
+        <v>10.0941884556683</v>
       </c>
       <c r="K10" t="n">
-        <v>0.147182980733165</v>
+        <v>9.15248010243656</v>
       </c>
       <c r="L10" t="n">
-        <v>8.26559286709323</v>
+        <v>4.41287407371219</v>
       </c>
       <c r="M10" t="n">
-        <v>51.1278901482109</v>
+        <v>4.35626777098419</v>
       </c>
       <c r="N10" t="n">
-        <v>4.42304522096839</v>
+        <v>63.9566181314951</v>
       </c>
       <c r="O10" t="n">
-        <v>30.167608949341</v>
+        <v>0.0380379091499032</v>
       </c>
       <c r="P10" t="n">
-        <v>63.2498532383475</v>
+        <v>0.0418188647575335</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.09583383244798</v>
+        <v>0.0799693813187427</v>
       </c>
       <c r="R10" t="n">
-        <v>5.1603730337207</v>
+        <v>0.399858585331148</v>
       </c>
       <c r="S10" t="n">
-        <v>2.13932429348835</v>
+        <v>0.440315259442736</v>
       </c>
       <c r="T10" t="n">
-        <v>345.211922920014</v>
+        <v>0.658784197817084</v>
       </c>
       <c r="U10" t="n">
-        <v>6.54807333473058</v>
+        <v>10.7837880585558</v>
       </c>
       <c r="V10" t="n">
-        <v>10.3717929381106</v>
+        <v>6.46479775928654</v>
       </c>
       <c r="W10" t="n">
-        <v>245.524778892968</v>
+        <v>14.2365614907172</v>
       </c>
       <c r="X10" t="n">
-        <v>54.5296876515126</v>
+        <v>697.069430768212</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.41876771497375</v>
+        <v>7.54457376949825</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.5069024090597</v>
+        <v>0.622592501073897</v>
       </c>
       <c r="AA10" t="n">
-        <v>29.62796154523</v>
+        <v>358.996561447395</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.42841938327509</v>
+        <v>50.2729897311758</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.31174303048063</v>
+        <v>3.86667009560049</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.77511557312407</v>
+        <v>14.3188184258252</v>
       </c>
       <c r="AE10" t="n">
-        <v>93.4128205878941</v>
+        <v>34.2055604237512</v>
       </c>
       <c r="AF10" t="n">
-        <v>35.0968328114918</v>
+        <v>333.720476068627</v>
       </c>
       <c r="AG10" t="n">
-        <v>7.11274689569379</v>
+        <v>49.110527583342</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.86407757637459</v>
+        <v>63.9566181314951</v>
       </c>
       <c r="AI10" t="n">
-        <v>5.86160582557024</v>
+        <v>31.775065011411</v>
       </c>
       <c r="AJ10" t="n">
-        <v>20.9473705814019</v>
+        <v>3.47151222621374</v>
       </c>
       <c r="AK10" t="n">
-        <v>20.9473705814019</v>
+        <v>0.00252766162283634</v>
       </c>
       <c r="AL10" t="n">
-        <v>12.870645418809</v>
-      </c>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10" t="n">
-        <v>5.05750363410087</v>
+        <v>2.63382341099547</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.255293823906471</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.255293823906471</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>3.69968634714477</v>
+      </c>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+      <c r="AR10"/>
+      <c r="AS10" t="n">
+        <v>3.56276223929671</v>
       </c>
     </row>
     <row r="11">
@@ -5194,118 +11307,127 @@
         <v>56</v>
       </c>
       <c r="C11" t="n">
-        <v>1.65815330146908</v>
+        <v>1.77238747075512</v>
       </c>
       <c r="D11" t="n">
-        <v>51.2203008239261</v>
+        <v>3.71588584603075</v>
       </c>
       <c r="E11" t="n">
-        <v>0.187333048152675</v>
+        <v>4.73860097296391</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0856745491800332</v>
+        <v>30.5453188608141</v>
       </c>
       <c r="G11" t="n">
-        <v>0.31964440948378</v>
+        <v>87.2182656419716</v>
       </c>
       <c r="H11" t="n">
-        <v>0.264747165138643</v>
+        <v>3.64810721931352</v>
       </c>
       <c r="I11" t="n">
-        <v>0.547721346604518</v>
+        <v>9.00368057590445</v>
       </c>
       <c r="J11" t="n">
-        <v>37.4975387629122</v>
+        <v>10.5231769508874</v>
       </c>
       <c r="K11" t="n">
-        <v>0.142600828045104</v>
+        <v>9.16559640393714</v>
       </c>
       <c r="L11" t="n">
-        <v>8.00783389634235</v>
+        <v>4.42421132349661</v>
       </c>
       <c r="M11" t="n">
-        <v>51.2203008239261</v>
+        <v>-3.70933287294839</v>
       </c>
       <c r="N11" t="n">
-        <v>4.7981870834275</v>
+        <v>64.3543903702118</v>
       </c>
       <c r="O11" t="n">
-        <v>29.4501603128017</v>
+        <v>0.0384476444755805</v>
       </c>
       <c r="P11" t="n">
-        <v>63.8259821152339</v>
+        <v>0.0418647697505528</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.18530128172792</v>
+        <v>0.0801739863252254</v>
       </c>
       <c r="R11" t="n">
-        <v>5.00117658560629</v>
+        <v>0.400126336010511</v>
       </c>
       <c r="S11" t="n">
-        <v>2.07538876902996</v>
+        <v>0.439387263438398</v>
       </c>
       <c r="T11" t="n">
-        <v>363.570095655617</v>
+        <v>0.662014027156906</v>
       </c>
       <c r="U11" t="n">
-        <v>6.86610669792354</v>
+        <v>10.9889369628771</v>
       </c>
       <c r="V11" t="n">
-        <v>10.045619969678</v>
+        <v>7.96414455341559</v>
       </c>
       <c r="W11" t="n">
-        <v>266.888222499129</v>
+        <v>14.2458537881616</v>
       </c>
       <c r="X11" t="n">
-        <v>55.7357584161488</v>
+        <v>724.161142424008</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.7900831006916</v>
+        <v>8.47759859784151</v>
       </c>
       <c r="Z11" t="n">
-        <v>11.5621840032631</v>
+        <v>0.256319723955023</v>
       </c>
       <c r="AA11" t="n">
-        <v>28.4065037831467</v>
+        <v>405.497560450489</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.58928865130003</v>
+        <v>54.768458088818</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.54112051705826</v>
+        <v>4.73902830239205</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.81264817893885</v>
+        <v>15.5379512729868</v>
       </c>
       <c r="AE11" t="n">
-        <v>91.000351969878</v>
+        <v>30.5476680668371</v>
       </c>
       <c r="AF11" t="n">
-        <v>34.219410437399</v>
+        <v>317.087979998052</v>
       </c>
       <c r="AG11" t="n">
-        <v>7.35151124984281</v>
+        <v>44.9752221872269</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.99139896439554</v>
+        <v>64.3543903702118</v>
       </c>
       <c r="AI11" t="n">
-        <v>6.18792851850464</v>
+        <v>30.9159009721621</v>
       </c>
       <c r="AJ11" t="n">
-        <v>20.8539136131032</v>
+        <v>0.666134148812748</v>
       </c>
       <c r="AK11" t="n">
-        <v>20.8539136131032</v>
+        <v>0.00252889200800156</v>
       </c>
       <c r="AL11" t="n">
-        <v>13.1400913252565</v>
-      </c>
-      <c r="AM11"/>
-      <c r="AN11"/>
-      <c r="AO11"/>
-      <c r="AP11" t="n">
-        <v>5.08328876997148</v>
+        <v>2.61234544426561</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.252889200800156</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.252889200800156</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>3.5638670003079</v>
+      </c>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11"/>
+      <c r="AS11" t="n">
+        <v>3.56276223929671</v>
       </c>
     </row>
     <row r="12">
@@ -5316,118 +11438,127 @@
         <v>56</v>
       </c>
       <c r="C12" t="n">
-        <v>1.45296839155871</v>
+        <v>1.74488399313075</v>
       </c>
       <c r="D12" t="n">
-        <v>51.4354803655422</v>
+        <v>3.69835327510316</v>
       </c>
       <c r="E12" t="n">
-        <v>0.186376916317865</v>
+        <v>4.63131947689825</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0861464708228799</v>
+        <v>30.7397240015632</v>
       </c>
       <c r="G12" t="n">
-        <v>0.323255926107586</v>
+        <v>87.3613757014019</v>
       </c>
       <c r="H12" t="n">
-        <v>0.26156234907276</v>
+        <v>3.47448896434235</v>
       </c>
       <c r="I12" t="n">
-        <v>0.551119070053672</v>
+        <v>7.59018707783257</v>
       </c>
       <c r="J12" t="n">
-        <v>36.5289800978759</v>
+        <v>9.12950541222058</v>
       </c>
       <c r="K12" t="n">
-        <v>0.142658337678924</v>
+        <v>8.93340179294378</v>
       </c>
       <c r="L12" t="n">
-        <v>7.74906432642955</v>
+        <v>4.32047646589543</v>
       </c>
       <c r="M12" t="n">
-        <v>51.4354803655422</v>
+        <v>9.01180793840822</v>
       </c>
       <c r="N12" t="n">
-        <v>4.34052585433433</v>
+        <v>64.8775082878866</v>
       </c>
       <c r="O12" t="n">
-        <v>28.5492223578525</v>
+        <v>0.03814114768199</v>
       </c>
       <c r="P12" t="n">
-        <v>64.4233540185396</v>
+        <v>0.0433417459543386</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.18811097533772</v>
+        <v>0.0803838855343976</v>
       </c>
       <c r="R12" t="n">
-        <v>4.84139704215703</v>
+        <v>0.400450285094714</v>
       </c>
       <c r="S12" t="n">
-        <v>2.01110039394875</v>
+        <v>0.437682935734596</v>
       </c>
       <c r="T12" t="n">
-        <v>358.333130594548</v>
+        <v>0.666350404581502</v>
       </c>
       <c r="U12" t="n">
-        <v>6.67374696209667</v>
+        <v>10.3091210384991</v>
       </c>
       <c r="V12" t="n">
-        <v>12.9758412467424</v>
+        <v>6.54087783736805</v>
       </c>
       <c r="W12" t="n">
-        <v>252.854569855663</v>
+        <v>13.8716010543697</v>
       </c>
       <c r="X12" t="n">
-        <v>54.7003895262855</v>
+        <v>893.032449488512</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.33621631690311</v>
+        <v>8.35379003911147</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.7320791745902</v>
+        <v>0.274819329924699</v>
       </c>
       <c r="AA12" t="n">
-        <v>26.5316812210008</v>
+        <v>496.509411446383</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.26238408033373</v>
+        <v>54.2922388319953</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.48210246743225</v>
+        <v>4.63191754417655</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.92862865948208</v>
+        <v>15.7651720477582</v>
       </c>
       <c r="AE12" t="n">
-        <v>97.063642871586</v>
+        <v>30.7401702757385</v>
       </c>
       <c r="AF12" t="n">
-        <v>32.3236897445425</v>
+        <v>394.392205271987</v>
       </c>
       <c r="AG12" t="n">
-        <v>7.473365564424</v>
+        <v>45.43294183808</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.98474890622767</v>
+        <v>64.8775082878866</v>
       </c>
       <c r="AI12" t="n">
-        <v>6.33531115393507</v>
+        <v>31.0323181711763</v>
       </c>
       <c r="AJ12" t="n">
-        <v>21.1446433877657</v>
+        <v>1.0900193743641</v>
       </c>
       <c r="AK12" t="n">
-        <v>21.1446433877657</v>
+        <v>1.42406322423637</v>
       </c>
       <c r="AL12" t="n">
-        <v>12.7799288133142</v>
-      </c>
-      <c r="AM12"/>
-      <c r="AN12"/>
-      <c r="AO12"/>
-      <c r="AP12" t="n">
-        <v>5.04256293105641</v>
+        <v>3.63730535781865</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.905532210082806</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.905532210082806</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>3.34658340982831</v>
+      </c>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12" t="n">
+        <v>3.56276223929671</v>
       </c>
     </row>
     <row r="13">
@@ -5438,118 +11569,127 @@
         <v>56</v>
       </c>
       <c r="C13" t="n">
-        <v>3.25343355945152</v>
+        <v>1.60360780508473</v>
       </c>
       <c r="D13" t="n">
-        <v>51.8000466040804</v>
+        <v>3.59376891447821</v>
       </c>
       <c r="E13" t="n">
-        <v>0.183799699167374</v>
+        <v>4.73582807807165</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0870135503014671</v>
+        <v>30.4365389230626</v>
       </c>
       <c r="G13" t="n">
-        <v>0.325464415328804</v>
+        <v>87.4905164639665</v>
       </c>
       <c r="H13" t="n">
-        <v>0.259711585698766</v>
+        <v>3.58077149387294</v>
       </c>
       <c r="I13" t="n">
-        <v>0.555130741276916</v>
+        <v>6.95630875272859</v>
       </c>
       <c r="J13" t="n">
-        <v>35.1712803969695</v>
+        <v>8.39739691896993</v>
       </c>
       <c r="K13" t="n">
-        <v>0.144010749503961</v>
+        <v>8.92271105811233</v>
       </c>
       <c r="L13" t="n">
-        <v>7.6311885638401</v>
+        <v>4.32451596450298</v>
       </c>
       <c r="M13" t="n">
-        <v>51.8000466040804</v>
+        <v>5.87007693412264</v>
       </c>
       <c r="N13" t="n">
-        <v>4.38115613220423</v>
+        <v>65.4758797463488</v>
       </c>
       <c r="O13" t="n">
-        <v>26.6103652978439</v>
+        <v>0.0381111205746088</v>
       </c>
       <c r="P13" t="n">
-        <v>64.9938594944183</v>
+        <v>0.0433657210718593</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.90029588957765</v>
+        <v>0.0758028529144908</v>
       </c>
       <c r="R13" t="n">
-        <v>4.77053022028187</v>
+        <v>0.405568638300246</v>
       </c>
       <c r="S13" t="n">
-        <v>1.98468270430887</v>
+        <v>0.437151667138904</v>
       </c>
       <c r="T13" t="n">
-        <v>400.51432057442</v>
+        <v>0.671568314217351</v>
       </c>
       <c r="U13" t="n">
-        <v>7.24158757075334</v>
+        <v>10.1223608898302</v>
       </c>
       <c r="V13" t="n">
-        <v>18.1030247995283</v>
+        <v>5.96728026776303</v>
       </c>
       <c r="W13" t="n">
-        <v>279.300875164593</v>
+        <v>13.8402066066059</v>
       </c>
       <c r="X13" t="n">
-        <v>52.0430361377814</v>
+        <v>1076.86757179883</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.38258796602057</v>
+        <v>8.36713001312859</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.5004722948284</v>
+        <v>0.425869163055627</v>
       </c>
       <c r="AA13" t="n">
-        <v>24.6674260110959</v>
+        <v>611.956536047946</v>
       </c>
       <c r="AB13" t="n">
-        <v>6.87247213230558</v>
+        <v>55.4967849730947</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.21650547787925</v>
+        <v>4.73396938749046</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.96152514779668</v>
+        <v>15.7507245075172</v>
       </c>
       <c r="AE13" t="n">
-        <v>105.802431569824</v>
+        <v>30.4352922196971</v>
       </c>
       <c r="AF13" t="n">
-        <v>29.8516669541595</v>
+        <v>460.38268620336</v>
       </c>
       <c r="AG13" t="n">
-        <v>7.73404397916348</v>
+        <v>44.0777114464797</v>
       </c>
       <c r="AH13" t="n">
-        <v>9.47170390732529</v>
+        <v>65.4758797463488</v>
       </c>
       <c r="AI13" t="n">
-        <v>6.42552189775226</v>
+        <v>30.5511770969169</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21.5630393298708</v>
+        <v>1.9561369791702</v>
       </c>
       <c r="AK13" t="n">
-        <v>21.5630393298708</v>
+        <v>1.50743243600884</v>
       </c>
       <c r="AL13" t="n">
-        <v>12.9572896330685</v>
-      </c>
-      <c r="AM13"/>
-      <c r="AN13"/>
-      <c r="AO13"/>
-      <c r="AP13" t="n">
-        <v>4.92836500859157</v>
+        <v>4.02403524444642</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1.06987234971769</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.06987234971769</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>3.18447859318297</v>
+      </c>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13" t="n">
+        <v>3.56276223929671</v>
       </c>
     </row>
     <row r="14">
@@ -5560,118 +11700,127 @@
         <v>56</v>
       </c>
       <c r="C14" t="n">
-        <v>2.05284477748659</v>
+        <v>1.76411097607844</v>
       </c>
       <c r="D14" t="n">
-        <v>52.0692956163559</v>
+        <v>3.59214277559294</v>
       </c>
       <c r="E14" t="n">
-        <v>0.179390977158763</v>
+        <v>5.11981487534051</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0886062149183442</v>
+        <v>29.3118395512787</v>
       </c>
       <c r="G14" t="n">
-        <v>0.328902115464396</v>
+        <v>87.609021494916</v>
       </c>
       <c r="H14" t="n">
-        <v>0.258922122440139</v>
+        <v>3.56884842008597</v>
       </c>
       <c r="I14" t="n">
-        <v>0.559309590426402</v>
+        <v>6.76520136665295</v>
       </c>
       <c r="J14" t="n">
-        <v>34.0989768694874</v>
+        <v>8.34376774866246</v>
       </c>
       <c r="K14" t="n">
-        <v>0.144178570018568</v>
+        <v>8.91182311491105</v>
       </c>
       <c r="L14" t="n">
-        <v>7.78091931660676</v>
+        <v>4.32510382642895</v>
       </c>
       <c r="M14" t="n">
-        <v>52.0692956163559</v>
+        <v>1.04124365427851</v>
       </c>
       <c r="N14" t="n">
-        <v>3.76029682435832</v>
+        <v>65.9941752324039</v>
       </c>
       <c r="O14" t="n">
-        <v>28.0582497481043</v>
+        <v>0.0428221219666057</v>
       </c>
       <c r="P14" t="n">
-        <v>65.5271919360406</v>
+        <v>0.0445596621761911</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.74478242674193</v>
+        <v>0.0768173895085097</v>
       </c>
       <c r="R14" t="n">
-        <v>4.86287188914206</v>
+        <v>0.406244375218542</v>
       </c>
       <c r="S14" t="n">
-        <v>2.02302263779664</v>
+        <v>0.429556451129971</v>
       </c>
       <c r="T14" t="n">
-        <v>373.961478981705</v>
+        <v>0.676433235799662</v>
       </c>
       <c r="U14" t="n">
-        <v>6.50265301143854</v>
+        <v>10.5930187288269</v>
       </c>
       <c r="V14" t="n">
-        <v>17.4050547526619</v>
+        <v>5.66356463925611</v>
       </c>
       <c r="W14" t="n">
-        <v>250.587957190749</v>
+        <v>13.8155812772277</v>
       </c>
       <c r="X14" t="n">
-        <v>51.5205357945075</v>
+        <v>1203.70978972377</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.74726272278723</v>
+        <v>8.7480338579925</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.39693024128461</v>
+        <v>0.365304551160702</v>
       </c>
       <c r="AA14" t="n">
-        <v>25.493533970026</v>
+        <v>707.919372919178</v>
       </c>
       <c r="AB14" t="n">
-        <v>6.66122928101186</v>
+        <v>57.4734635331698</v>
       </c>
       <c r="AC14" t="n">
-        <v>3.35997325315207</v>
+        <v>5.11775931247808</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.01631721116251</v>
+        <v>16.1917517674332</v>
       </c>
       <c r="AE14" t="n">
-        <v>108.553264792933</v>
+        <v>29.313685644891</v>
       </c>
       <c r="AF14" t="n">
-        <v>31.0743938984648</v>
+        <v>491.26117486347</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.94604986529265</v>
+        <v>42.1612319156695</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.75523067460034</v>
+        <v>65.9941752324039</v>
       </c>
       <c r="AI14" t="n">
-        <v>6.56642369092606</v>
+        <v>29.3719811462521</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22.3099087606978</v>
+        <v>1.47585447237124</v>
       </c>
       <c r="AK14" t="n">
-        <v>22.3099087606978</v>
+        <v>1.79261819782827</v>
       </c>
       <c r="AL14" t="n">
-        <v>12.5720247232094</v>
-      </c>
-      <c r="AM14"/>
-      <c r="AN14"/>
-      <c r="AO14"/>
-      <c r="AP14" t="n">
-        <v>4.81391255445471</v>
+        <v>4.43224217319175</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1.26924447857516</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.26924447857516</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>2.7117091645752</v>
+      </c>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AR14"/>
+      <c r="AS14" t="n">
+        <v>3.56276223929671</v>
       </c>
     </row>
     <row r="15">
@@ -5682,118 +11831,127 @@
         <v>56</v>
       </c>
       <c r="C15" t="n">
-        <v>3.51466950892717</v>
+        <v>1.74644415377937</v>
       </c>
       <c r="D15" t="n">
-        <v>52.1727836492876</v>
+        <v>3.56162138925852</v>
       </c>
       <c r="E15" t="n">
-        <v>0.176742606276113</v>
+        <v>5.19481764034615</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0916486576713086</v>
+        <v>29.8891008777554</v>
       </c>
       <c r="G15" t="n">
-        <v>0.331594614852556</v>
+        <v>87.7211414009573</v>
       </c>
       <c r="H15" t="n">
-        <v>0.25601021696356</v>
+        <v>3.31641327951724</v>
       </c>
       <c r="I15" t="n">
-        <v>0.563423933460146</v>
+        <v>6.60456993781023</v>
       </c>
       <c r="J15" t="n">
-        <v>32.882455803426</v>
+        <v>7.84529702318362</v>
       </c>
       <c r="K15" t="n">
-        <v>0.14400390423663</v>
+        <v>9.04418444014497</v>
       </c>
       <c r="L15" t="n">
-        <v>7.91151159915758</v>
+        <v>4.38676601692392</v>
       </c>
       <c r="M15" t="n">
-        <v>52.1727836492876</v>
+        <v>3.25286631239645</v>
       </c>
       <c r="N15" t="n">
-        <v>4.094319973349</v>
+        <v>66.3027077198174</v>
       </c>
       <c r="O15" t="n">
-        <v>29.6209330297405</v>
+        <v>0.0429246150945593</v>
       </c>
       <c r="P15" t="n">
-        <v>66.0474982581634</v>
+        <v>0.0439779905845009</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.70947909305557</v>
+        <v>0.077539035930321</v>
       </c>
       <c r="R15" t="n">
-        <v>4.94371153327895</v>
+        <v>0.406819032202171</v>
       </c>
       <c r="S15" t="n">
-        <v>2.05693338364317</v>
+        <v>0.428739326188298</v>
       </c>
       <c r="T15" t="n">
-        <v>403.894651099711</v>
+        <v>0.679919818110811</v>
       </c>
       <c r="U15" t="n">
-        <v>6.41315300840666</v>
+        <v>10.4957525172772</v>
       </c>
       <c r="V15" t="n">
-        <v>13.6897262612626</v>
+        <v>5.74207944192732</v>
       </c>
       <c r="W15" t="n">
-        <v>284.357192078857</v>
+        <v>14.0215975539677</v>
       </c>
       <c r="X15" t="n">
-        <v>53.3755491863627</v>
+        <v>1272.0148763525</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.09246523448903</v>
+        <v>8.78516731075485</v>
       </c>
       <c r="Z15" t="n">
-        <v>10.9124847274804</v>
+        <v>0.323579420032259</v>
       </c>
       <c r="AA15" t="n">
-        <v>26.8875110542713</v>
+        <v>756.625078977094</v>
       </c>
       <c r="AB15" t="n">
-        <v>6.62626530782912</v>
+        <v>57.9861895747863</v>
       </c>
       <c r="AC15" t="n">
-        <v>3.57305414472188</v>
+        <v>5.19527559865533</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.9989829538736</v>
+        <v>16.2246628867542</v>
       </c>
       <c r="AE15" t="n">
-        <v>110.348053667729</v>
+        <v>29.8905682128199</v>
       </c>
       <c r="AF15" t="n">
-        <v>32.928833131342</v>
+        <v>511.313513786226</v>
       </c>
       <c r="AG15" t="n">
-        <v>8.11851058258534</v>
+        <v>41.6963489604521</v>
       </c>
       <c r="AH15" t="n">
-        <v>10.1515537436933</v>
+        <v>66.3027077198174</v>
       </c>
       <c r="AI15" t="n">
-        <v>6.59900878900104</v>
+        <v>29.1744269952356</v>
       </c>
       <c r="AJ15" t="n">
-        <v>22.5588915537171</v>
+        <v>1.10337509097324</v>
       </c>
       <c r="AK15" t="n">
-        <v>22.5588915537171</v>
+        <v>2.07738369759723</v>
       </c>
       <c r="AL15" t="n">
-        <v>13.057981864524</v>
-      </c>
-      <c r="AM15"/>
-      <c r="AN15"/>
-      <c r="AO15"/>
-      <c r="AP15" t="n">
-        <v>4.7387954206311</v>
+        <v>4.76888447368122</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1.42535815747547</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1.42535815747547</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>2.4270504856273</v>
+      </c>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+      <c r="AR15"/>
+      <c r="AS15" t="n">
+        <v>3.56276223929671</v>
       </c>
     </row>
     <row r="16">
@@ -5804,118 +11962,127 @@
         <v>56</v>
       </c>
       <c r="C16" t="n">
-        <v>2.97486103370298</v>
+        <v>1.85269369742858</v>
       </c>
       <c r="D16" t="n">
-        <v>51.9947827960666</v>
+        <v>3.47055757473975</v>
       </c>
       <c r="E16" t="n">
-        <v>0.176995854492032</v>
+        <v>5.35529921405876</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0915489689008845</v>
+        <v>29.8955397788438</v>
       </c>
       <c r="G16" t="n">
-        <v>0.335340262180177</v>
+        <v>87.83128190501</v>
       </c>
       <c r="H16" t="n">
-        <v>0.251454020128532</v>
+        <v>3.78096812113956</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5660421976828</v>
+        <v>6.88351838030207</v>
       </c>
       <c r="J16" t="n">
-        <v>31.0840053585067</v>
+        <v>7.92800870610283</v>
       </c>
       <c r="K16" t="n">
-        <v>0.144660894298285</v>
+        <v>9.09036161721542</v>
       </c>
       <c r="L16" t="n">
-        <v>8.09436000836584</v>
+        <v>4.40947857016629</v>
       </c>
       <c r="M16" t="n">
-        <v>51.9947827960666</v>
+        <v>-0.466047819901002</v>
       </c>
       <c r="N16" t="n">
-        <v>4.53923302624144</v>
+        <v>66.6656274040699</v>
       </c>
       <c r="O16" t="n">
-        <v>27.6592976372033</v>
+        <v>0.0430383120106487</v>
       </c>
       <c r="P16" t="n">
-        <v>66.565822877492</v>
+        <v>0.0439558713861691</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.7421652525416</v>
+        <v>0.0764332346114908</v>
       </c>
       <c r="R16" t="n">
-        <v>5.05762027509944</v>
+        <v>0.408670749911891</v>
       </c>
       <c r="S16" t="n">
-        <v>2.10513476985142</v>
+        <v>0.427901832080008</v>
       </c>
       <c r="T16" t="n">
-        <v>455.013053388759</v>
+        <v>0.684136515517265</v>
       </c>
       <c r="U16" t="n">
-        <v>7.01262792117289</v>
+        <v>11.2442843090372</v>
       </c>
       <c r="V16" t="n">
-        <v>17.5577038833536</v>
+        <v>6.15318096744493</v>
       </c>
       <c r="W16" t="n">
-        <v>327.570820093029</v>
+        <v>14.0918889336029</v>
       </c>
       <c r="X16" t="n">
-        <v>52.1246370103101</v>
+        <v>1184.07736280253</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.53637126966316</v>
+        <v>8.85791837275852</v>
       </c>
       <c r="Z16" t="n">
-        <v>11.8048065699399</v>
+        <v>0.357148420900813</v>
       </c>
       <c r="AA16" t="n">
-        <v>24.5214960195371</v>
+        <v>718.422665641239</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.50682904092945</v>
+        <v>59.5420686714754</v>
       </c>
       <c r="AC16" t="n">
-        <v>2.66226271820367</v>
+        <v>5.35692247077927</v>
       </c>
       <c r="AD16" t="n">
-        <v>1.94580615386626</v>
+        <v>16.3749719009089</v>
       </c>
       <c r="AE16" t="n">
-        <v>110.053624738636</v>
+        <v>29.8951015655801</v>
       </c>
       <c r="AF16" t="n">
-        <v>30.3176876789614</v>
+        <v>461.33448780884</v>
       </c>
       <c r="AG16" t="n">
-        <v>7.70622242801943</v>
+        <v>40.1007829076238</v>
       </c>
       <c r="AH16" t="n">
-        <v>9.72164086851779</v>
+        <v>66.6656274040699</v>
       </c>
       <c r="AI16" t="n">
-        <v>6.19225428476462</v>
+        <v>29.863899608171</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22.8683969202435</v>
+        <v>2.06015979829547</v>
       </c>
       <c r="AK16" t="n">
-        <v>22.8683969202435</v>
+        <v>2.30206305281437</v>
       </c>
       <c r="AL16" t="n">
-        <v>12.1733433672835</v>
-      </c>
-      <c r="AM16"/>
-      <c r="AN16"/>
-      <c r="AO16"/>
-      <c r="AP16" t="n">
-        <v>4.79863190115878</v>
+        <v>5.14489613120753</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1.55408208285493</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.55408208285493</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>2.36689842184733</v>
+      </c>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+      <c r="AR16"/>
+      <c r="AS16" t="n">
+        <v>3.56276223929671</v>
       </c>
     </row>
     <row r="17">
@@ -5926,118 +12093,127 @@
         <v>56</v>
       </c>
       <c r="C17" t="n">
-        <v>4.06081993542454</v>
+        <v>1.77715352090559</v>
       </c>
       <c r="D17" t="n">
-        <v>52.0303316094549</v>
+        <v>3.58945298132858</v>
       </c>
       <c r="E17" t="n">
-        <v>0.179061625347885</v>
+        <v>5.73164895369463</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0894863574163014</v>
+        <v>29.2281279062825</v>
       </c>
       <c r="G17" t="n">
-        <v>0.340226520822308</v>
+        <v>87.9394174922209</v>
       </c>
       <c r="H17" t="n">
-        <v>0.247223113027456</v>
+        <v>3.55667975239569</v>
       </c>
       <c r="I17" t="n">
-        <v>0.569672750232933</v>
+        <v>7.00206655157637</v>
       </c>
       <c r="J17" t="n">
-        <v>30.6643068913398</v>
+        <v>7.94748542375507</v>
       </c>
       <c r="K17" t="n">
-        <v>0.144002383386263</v>
+        <v>9.1476792756282</v>
       </c>
       <c r="L17" t="n">
-        <v>8.21522659927894</v>
+        <v>4.4369222403917</v>
       </c>
       <c r="M17" t="n">
-        <v>52.0303316094549</v>
+        <v>2.49092387354013</v>
       </c>
       <c r="N17" t="n">
-        <v>4.75199330745917</v>
+        <v>67.2760996175303</v>
       </c>
       <c r="O17" t="n">
-        <v>28.411021849061</v>
+        <v>0.0431183154701542</v>
       </c>
       <c r="P17" t="n">
-        <v>67.0849255967603</v>
+        <v>0.043927758432914</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.70005245066276</v>
+        <v>0.0755922873327121</v>
       </c>
       <c r="R17" t="n">
-        <v>5.13303859860853</v>
+        <v>0.41031474526505</v>
       </c>
       <c r="S17" t="n">
-        <v>2.13740281257781</v>
+        <v>0.427046893499113</v>
       </c>
       <c r="T17" t="n">
-        <v>496.598297272397</v>
+        <v>0.690216592813424</v>
       </c>
       <c r="U17" t="n">
-        <v>7.38785744577513</v>
+        <v>10.9739181708659</v>
       </c>
       <c r="V17" t="n">
-        <v>16.9024296303938</v>
+        <v>6.33577014767942</v>
       </c>
       <c r="W17" t="n">
-        <v>362.734061936901</v>
+        <v>14.1773267223433</v>
       </c>
       <c r="X17" t="n">
-        <v>52.2175777841389</v>
+        <v>1321.53753128138</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.74933053810152</v>
+        <v>9.33956627922371</v>
       </c>
       <c r="Z17" t="n">
-        <v>12.2321375897324</v>
+        <v>0.200217615677964</v>
       </c>
       <c r="AA17" t="n">
-        <v>24.8696226336324</v>
+        <v>822.547038632442</v>
       </c>
       <c r="AB17" t="n">
-        <v>6.34657985930656</v>
+        <v>60.3605166152658</v>
       </c>
       <c r="AC17" t="n">
-        <v>2.57204172237094</v>
+        <v>5.72964197112922</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.08071403237038</v>
+        <v>16.4497874268945</v>
       </c>
       <c r="AE17" t="n">
-        <v>115.299052501873</v>
+        <v>29.2270549515382</v>
       </c>
       <c r="AF17" t="n">
-        <v>30.88033308195</v>
+        <v>496.213386929564</v>
       </c>
       <c r="AG17" t="n">
-        <v>7.80465812958102</v>
+        <v>39.4331480608328</v>
       </c>
       <c r="AH17" t="n">
-        <v>9.81689342364721</v>
+        <v>67.2760996175303</v>
       </c>
       <c r="AI17" t="n">
-        <v>6.26838394020492</v>
+        <v>29.5732333508273</v>
       </c>
       <c r="AJ17" t="n">
-        <v>23.3224951270229</v>
+        <v>1.78952538373949</v>
       </c>
       <c r="AK17" t="n">
-        <v>23.3224951270229</v>
+        <v>2.55258757370122</v>
       </c>
       <c r="AL17" t="n">
-        <v>12.4673889624561</v>
-      </c>
-      <c r="AM17"/>
-      <c r="AN17"/>
-      <c r="AO17"/>
-      <c r="AP17" t="n">
-        <v>4.7460259828944</v>
+        <v>5.45647185309003</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.62506317810879</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.62506317810879</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>2.32411565787426</v>
+      </c>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17" t="n">
+        <v>3.56276223929671</v>
       </c>
     </row>
     <row r="18">
@@ -6048,123 +12224,132 @@
         <v>56</v>
       </c>
       <c r="C18" t="n">
-        <v>2.41118717869243</v>
+        <v>1.73506164516694</v>
       </c>
       <c r="D18" t="n">
-        <v>52.4557930477515</v>
+        <v>3.5877723117875</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1743926409374</v>
+        <v>5.05351074838236</v>
       </c>
       <c r="F18" t="n">
-        <v>0.090119346746046</v>
+        <v>31.4245197901066</v>
       </c>
       <c r="G18" t="n">
-        <v>0.342720885494568</v>
+        <v>88.0459804611769</v>
       </c>
       <c r="H18" t="n">
-        <v>0.246710329614794</v>
+        <v>3.36104205009249</v>
       </c>
       <c r="I18" t="n">
-        <v>0.575175916762195</v>
+        <v>7.49622256861761</v>
       </c>
       <c r="J18" t="n">
-        <v>29.835421326289</v>
+        <v>8.53107528396633</v>
       </c>
       <c r="K18" t="n">
-        <v>0.14605679720715</v>
+        <v>9.2140137717222</v>
       </c>
       <c r="L18" t="n">
-        <v>8.39767890224075</v>
+        <v>4.47154920868387</v>
       </c>
       <c r="M18" t="n">
-        <v>52.4557930477515</v>
+        <v>-0.372769627583428</v>
       </c>
       <c r="N18" t="n">
-        <v>4.63585723525254</v>
+        <v>67.8260395594726</v>
       </c>
       <c r="O18" t="n">
-        <v>29.5332198439531</v>
+        <v>0.0439743836885095</v>
       </c>
       <c r="P18" t="n">
-        <v>67.5995588019875</v>
+        <v>0.0438786828784855</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.50311278900778</v>
+        <v>0.0746871551862842</v>
       </c>
       <c r="R18" t="n">
-        <v>5.24594155684838</v>
+        <v>0.412098993049437</v>
       </c>
       <c r="S18" t="n">
-        <v>2.18436893203639</v>
+        <v>0.425360785197754</v>
       </c>
       <c r="T18" t="n">
-        <v>495.492149197082</v>
+        <v>0.69537830592107</v>
       </c>
       <c r="U18" t="n">
-        <v>7.12068798368903</v>
+        <v>10.5319298409358</v>
       </c>
       <c r="V18" t="n">
-        <v>14.3343790655811</v>
+        <v>6.76298219327362</v>
       </c>
       <c r="W18" t="n">
-        <v>367.251056987363</v>
+        <v>14.273864696012</v>
       </c>
       <c r="X18" t="n">
-        <v>54.0496610115733</v>
+        <v>1104.49911460373</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.63237184674153</v>
+        <v>8.65966172960961</v>
       </c>
       <c r="Z18" t="n">
-        <v>12.5733170223325</v>
+        <v>0.222047544296398</v>
       </c>
       <c r="AA18" t="n">
-        <v>25.3508691674033</v>
+        <v>648.919596013725</v>
       </c>
       <c r="AB18" t="n">
-        <v>6.24642549251899</v>
+        <v>57.9986938192182</v>
       </c>
       <c r="AC18" t="n">
-        <v>3.97521243522779</v>
+        <v>5.05267373446717</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.14995574507541</v>
+        <v>14.8626030800742</v>
       </c>
       <c r="AE18" t="n">
-        <v>118.185279845948</v>
+        <v>31.4250527285892</v>
       </c>
       <c r="AF18" t="n">
-        <v>31.6182790359911</v>
+        <v>453.273925033228</v>
       </c>
       <c r="AG18" t="n">
-        <v>7.6123316723566</v>
+        <v>41.7801359143228</v>
       </c>
       <c r="AH18" t="n">
-        <v>9.66988706556601</v>
+        <v>67.8260395594726</v>
       </c>
       <c r="AI18" t="n">
-        <v>6.03642445062672</v>
+        <v>29.8776740366405</v>
       </c>
       <c r="AJ18" t="n">
-        <v>23.7113410429985</v>
+        <v>1.77771058684889</v>
       </c>
       <c r="AK18" t="n">
-        <v>23.7113410429985</v>
+        <v>2.67590520217121</v>
       </c>
       <c r="AL18" t="n">
-        <v>12.6531531052684</v>
+        <v>5.84800474646688</v>
       </c>
       <c r="AM18" t="n">
-        <v>4.61034468885326</v>
+        <v>1.6227580270499</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.42289367746547</v>
+        <v>1.6227580270499</v>
       </c>
       <c r="AO18" t="n">
-        <v>4.80913551580874</v>
-      </c>
-      <c r="AP18"/>
+        <v>2.53533295019308</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>3.56276223929671</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>3.24286082427556</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>3.88995053812671</v>
+      </c>
+      <c r="AS18"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -6174,123 +12359,132 @@
         <v>56</v>
       </c>
       <c r="C19" t="n">
-        <v>2.51260424191052</v>
+        <v>1.73371297252586</v>
       </c>
       <c r="D19" t="n">
-        <v>52.8793731925169</v>
+        <v>3.90346360719204</v>
       </c>
       <c r="E19" t="n">
-        <v>0.175908534655166</v>
+        <v>5.74559148832024</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0887440081387452</v>
+        <v>28.87579326686</v>
       </c>
       <c r="G19" t="n">
-        <v>0.347579892866271</v>
+        <v>88.1506939364395</v>
       </c>
       <c r="H19" t="n">
-        <v>0.243228775498281</v>
+        <v>3.57365467063258</v>
       </c>
       <c r="I19" t="n">
-        <v>0.579745998501421</v>
+        <v>7.64281347462134</v>
       </c>
       <c r="J19" t="n">
-        <v>28.9977951703352</v>
+        <v>8.61051674701042</v>
       </c>
       <c r="K19" t="n">
-        <v>0.144538788841374</v>
+        <v>9.08746264962366</v>
       </c>
       <c r="L19" t="n">
-        <v>8.52353087396959</v>
+        <v>4.4092896461377</v>
       </c>
       <c r="M19" t="n">
-        <v>52.8793731925169</v>
+        <v>2.56572642039712</v>
       </c>
       <c r="N19" t="n">
-        <v>4.46334228949818</v>
+        <v>68.3152944432514</v>
       </c>
       <c r="O19" t="n">
-        <v>30.8648281933251</v>
+        <v>0.0443332092062551</v>
       </c>
       <c r="P19" t="n">
-        <v>68.1107788698053</v>
+        <v>0.0451222723982822</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.53306865297869</v>
+        <v>0.0747417098393947</v>
       </c>
       <c r="R19" t="n">
-        <v>5.32346227230233</v>
+        <v>0.412975635314467</v>
       </c>
       <c r="S19" t="n">
-        <v>2.21683219310247</v>
+        <v>0.422827173241428</v>
       </c>
       <c r="T19" t="n">
-        <v>500.458731118334</v>
+        <v>0.699749685973293</v>
       </c>
       <c r="U19" t="n">
-        <v>6.61431192242155</v>
+        <v>10.4511498462256</v>
       </c>
       <c r="V19" t="n">
-        <v>10.051540293513</v>
+        <v>6.9506108890737</v>
       </c>
       <c r="W19" t="n">
-        <v>372.825785055337</v>
+        <v>14.0726624209543</v>
       </c>
       <c r="X19" t="n">
-        <v>54.8605911820498</v>
+        <v>1393.00733990513</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.43288879168042</v>
+        <v>9.67754149403642</v>
       </c>
       <c r="Z19" t="n">
-        <v>12.1256670170105</v>
+        <v>0.287492948311914</v>
       </c>
       <c r="AA19" t="n">
-        <v>27.8466197737476</v>
+        <v>834.396770840632</v>
       </c>
       <c r="AB19" t="n">
-        <v>6.28337841871483</v>
+        <v>58.7010691197772</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.3987236090231</v>
+        <v>5.74607754828524</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.19456779729354</v>
+        <v>16.6969132162073</v>
       </c>
       <c r="AE19" t="n">
-        <v>120.703064151967</v>
+        <v>28.8760096428021</v>
       </c>
       <c r="AF19" t="n">
-        <v>35.0878685244373</v>
+        <v>554.462271362323</v>
       </c>
       <c r="AG19" t="n">
-        <v>7.00787185679305</v>
+        <v>41.0119119155984</v>
       </c>
       <c r="AH19" t="n">
-        <v>8.63254165158897</v>
+        <v>68.3152944432514</v>
       </c>
       <c r="AI19" t="n">
-        <v>5.70487979244284</v>
+        <v>29.3470695565868</v>
       </c>
       <c r="AJ19" t="n">
-        <v>24.5536907785897</v>
+        <v>1.16713659428163</v>
       </c>
       <c r="AK19" t="n">
-        <v>24.5536907785897</v>
+        <v>3.03256261617167</v>
       </c>
       <c r="AL19" t="n">
-        <v>11.7292433519041</v>
+        <v>6.24575605931331</v>
       </c>
       <c r="AM19" t="n">
-        <v>4.45963370844994</v>
+        <v>1.69691213505579</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.25128515599505</v>
+        <v>1.69691213505579</v>
       </c>
       <c r="AO19" t="n">
-        <v>4.68746299332304</v>
-      </c>
-      <c r="AP19"/>
+        <v>2.32383398205424</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3.56276223929671</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>3.24784020451192</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>3.87023303420572</v>
+      </c>
+      <c r="AS19"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -6300,123 +12494,132 @@
         <v>56</v>
       </c>
       <c r="C20" t="n">
-        <v>3.25009286807459</v>
+        <v>1.67716802760919</v>
       </c>
       <c r="D20" t="n">
-        <v>53.3762662572431</v>
+        <v>3.86351039731599</v>
       </c>
       <c r="E20" t="n">
-        <v>0.173299786122656</v>
+        <v>5.3637407820214</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0901430327099998</v>
+        <v>30.0295186928418</v>
       </c>
       <c r="G20" t="n">
-        <v>0.350495555977385</v>
+        <v>88.2556702729214</v>
       </c>
       <c r="H20" t="n">
-        <v>0.236927233528889</v>
+        <v>3.57566741516812</v>
       </c>
       <c r="I20" t="n">
-        <v>0.584260939012125</v>
+        <v>8.3987990156828</v>
       </c>
       <c r="J20" t="n">
-        <v>30.0562539285217</v>
+        <v>9.6039608059506</v>
       </c>
       <c r="K20" t="n">
-        <v>0.149134391661028</v>
+        <v>8.98913682004635</v>
       </c>
       <c r="L20" t="n">
-        <v>8.57536795154303</v>
+        <v>4.36034784590527</v>
       </c>
       <c r="M20" t="n">
-        <v>53.3762662572431</v>
+        <v>-0.265050326795392</v>
       </c>
       <c r="N20" t="n">
-        <v>4.22999292773884</v>
+        <v>68.8298276912028</v>
       </c>
       <c r="O20" t="n">
-        <v>32.5383788301509</v>
+        <v>0.0446276885062837</v>
       </c>
       <c r="P20" t="n">
-        <v>68.6093356159705</v>
+        <v>0.0451548046765314</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.32460268748169</v>
+        <v>0.0746539527219501</v>
       </c>
       <c r="R20" t="n">
-        <v>5.35609669974537</v>
+        <v>0.413998861276281</v>
       </c>
       <c r="S20" t="n">
-        <v>2.23212321611865</v>
+        <v>0.42156469281948</v>
       </c>
       <c r="T20" t="n">
-        <v>495.568289150114</v>
+        <v>0.704142880914733</v>
       </c>
       <c r="U20" t="n">
-        <v>6.48093493072337</v>
+        <v>10.0971842792506</v>
       </c>
       <c r="V20" t="n">
-        <v>12.1790113589641</v>
+        <v>7.515160409581</v>
       </c>
       <c r="W20" t="n">
-        <v>364.679982129463</v>
+        <v>13.9160456146916</v>
       </c>
       <c r="X20" t="n">
-        <v>54.7354201429721</v>
+        <v>1173.31573030371</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.21832244720709</v>
+        <v>9.14621248634111</v>
       </c>
       <c r="Z20" t="n">
-        <v>11.7624686309024</v>
+        <v>0.187855043259601</v>
       </c>
       <c r="AA20" t="n">
-        <v>26.5559372214691</v>
+        <v>690.296475594248</v>
       </c>
       <c r="AB20" t="n">
-        <v>6.39666655980686</v>
+        <v>58.4303108818343</v>
       </c>
       <c r="AC20" t="n">
-        <v>4.93766952582359</v>
+        <v>5.37834202602887</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.24955275001045</v>
+        <v>16.257480771775</v>
       </c>
       <c r="AE20" t="n">
-        <v>121.61337476157</v>
+        <v>30.0919878886489</v>
       </c>
       <c r="AF20" t="n">
-        <v>33.0856093908217</v>
+        <v>480.926896223213</v>
       </c>
       <c r="AG20" t="n">
-        <v>6.89274858658334</v>
+        <v>41.3818340749061</v>
       </c>
       <c r="AH20" t="n">
-        <v>8.77129841314597</v>
+        <v>68.8298276912028</v>
       </c>
       <c r="AI20" t="n">
-        <v>5.43887839074083</v>
+        <v>29.1931555586393</v>
       </c>
       <c r="AJ20" t="n">
-        <v>24.7307566642048</v>
+        <v>1.33204749401015</v>
       </c>
       <c r="AK20" t="n">
-        <v>24.7307566642048</v>
+        <v>3.22087944939575</v>
       </c>
       <c r="AL20" t="n">
-        <v>12.187614489036</v>
+        <v>6.64930960316784</v>
       </c>
       <c r="AM20" t="n">
-        <v>4.30464559456613</v>
+        <v>1.79877277126159</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.9999337042871</v>
+        <v>1.79877277126159</v>
       </c>
       <c r="AO20" t="n">
-        <v>4.69565550118608</v>
-      </c>
-      <c r="AP20"/>
+        <v>2.13643418296061</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>3.56276223929671</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>3.18151109791476</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>3.8827541821986</v>
+      </c>
+      <c r="AS20"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -6426,123 +12629,132 @@
         <v>56</v>
       </c>
       <c r="C21" t="n">
-        <v>0.982017559085979</v>
+        <v>1.66287479919897</v>
       </c>
       <c r="D21" t="n">
-        <v>53.773694859423</v>
+        <v>3.82824845574468</v>
       </c>
       <c r="E21" t="n">
-        <v>0.173570491791171</v>
+        <v>5.40699474744556</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0910902862806353</v>
+        <v>29.655673268435</v>
       </c>
       <c r="G21" t="n">
-        <v>0.354566709550196</v>
+        <v>88.3616705467361</v>
       </c>
       <c r="H21" t="n">
-        <v>0.23386536987238</v>
+        <v>3.41936050014968</v>
       </c>
       <c r="I21" t="n">
-        <v>0.587960167662827</v>
+        <v>8.83706882483377</v>
       </c>
       <c r="J21" t="n">
-        <v>29.7298924581679</v>
+        <v>9.78869071194672</v>
       </c>
       <c r="K21" t="n">
-        <v>0.146907142505636</v>
+        <v>8.98866944833167</v>
       </c>
       <c r="L21" t="n">
-        <v>8.5682166223862</v>
+        <v>4.3599324781506</v>
       </c>
       <c r="M21" t="n">
-        <v>53.773694859423</v>
+        <v>-1.03441793945402</v>
       </c>
       <c r="N21" t="n">
-        <v>4.27157700552501</v>
+        <v>69.2362402116359</v>
       </c>
       <c r="O21" t="n">
-        <v>31.7635196569391</v>
+        <v>0.0467038775223471</v>
       </c>
       <c r="P21" t="n">
-        <v>69.1050266744916</v>
+        <v>0.0451589810416244</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.23727376543999</v>
+        <v>0.0695566056898234</v>
       </c>
       <c r="R21" t="n">
-        <v>5.3515027547898</v>
+        <v>0.420075469498554</v>
       </c>
       <c r="S21" t="n">
-        <v>2.23006376706684</v>
+        <v>0.418505066247541</v>
       </c>
       <c r="T21" t="n">
-        <v>507.982493894278</v>
+        <v>0.7076457265117</v>
       </c>
       <c r="U21" t="n">
-        <v>6.40634146640728</v>
+        <v>9.9685237645499</v>
       </c>
       <c r="V21" t="n">
-        <v>12.6349629070299</v>
+        <v>8.13191135269795</v>
       </c>
       <c r="W21" t="n">
-        <v>376.52157567697</v>
+        <v>13.9150534633603</v>
       </c>
       <c r="X21" t="n">
-        <v>54.0716748550449</v>
+        <v>1049.98121860385</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.20845687127452</v>
+        <v>9.22558286025171</v>
       </c>
       <c r="Z21" t="n">
-        <v>11.7649061383384</v>
+        <v>0.146510998944448</v>
       </c>
       <c r="AA21" t="n">
-        <v>26.3418116572688</v>
+        <v>621.108690316589</v>
       </c>
       <c r="AB21" t="n">
-        <v>6.38496579095682</v>
+        <v>59.1626893876933</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.26373836020087</v>
+        <v>5.48798167701425</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.28573696339764</v>
+        <v>16.6152959484939</v>
       </c>
       <c r="AE21" t="n">
-        <v>123.348120955874</v>
+        <v>29.1712848432349</v>
       </c>
       <c r="AF21" t="n">
-        <v>33.2904860253787</v>
+        <v>427.468226399799</v>
       </c>
       <c r="AG21" t="n">
-        <v>6.82131903125927</v>
+        <v>40.6856173905096</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.63652159802119</v>
+        <v>69.2362402116359</v>
       </c>
       <c r="AI21" t="n">
-        <v>5.39069987964244</v>
+        <v>30.0773193683397</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23.4830948923375</v>
+        <v>1.27090535727486</v>
       </c>
       <c r="AK21" t="n">
-        <v>23.4870462637958</v>
+        <v>3.34092003166655</v>
       </c>
       <c r="AL21" t="n">
-        <v>11.7283889707307</v>
+        <v>6.83933320238383</v>
       </c>
       <c r="AM21" t="n">
-        <v>4.16946185625938</v>
+        <v>1.88475395913182</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.86029882001589</v>
+        <v>1.88475395913182</v>
       </c>
       <c r="AO21" t="n">
-        <v>4.64000799088616</v>
-      </c>
-      <c r="AP21"/>
+        <v>2.08093914523109</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>3.56276223929671</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>3.17785348062672</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>3.80738770091741</v>
+      </c>
+      <c r="AS21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9089,7 +15301,7 @@
         <v>38</v>
       </c>
       <c r="AO1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AP1" t="s">
         <v>51</v>
@@ -19844,7 +26056,7 @@
         <v>38</v>
       </c>
       <c r="O1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P1" t="s">
         <v>17</v>
@@ -22454,7 +28666,7 @@
         <v>22</v>
       </c>
       <c r="S1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T1" t="s">
         <v>23</v>
@@ -22487,10 +28699,10 @@
         <v>4</v>
       </c>
       <c r="AD1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF1" t="s">
         <v>37</v>
@@ -22520,7 +28732,7 @@
         <v>19</v>
       </c>
       <c r="AO1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP1" t="s">
         <v>51</v>
